--- a/data/FOREX_6Q.xlsx
+++ b/data/FOREX_6Q.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="750">
   <si>
     <t xml:space="preserve"> Monetary and Financial Statistics by Indicator</t>
   </si>
@@ -128,6 +128,9 @@
     <t>2021Q4</t>
   </si>
   <si>
+    <t>2022Q1</t>
+  </si>
+  <si>
     <t>Afghanistan, Islamic Rep. of</t>
   </si>
   <si>
@@ -143,18 +146,27 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Albania</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Algeria</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Andorra, Principality of</t>
   </si>
   <si>
@@ -248,6 +260,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Anguilla</t>
   </si>
   <si>
@@ -266,12 +281,18 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Armenia, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Aruba, Kingdom of the Netherlands</t>
   </si>
   <si>
@@ -284,12 +305,18 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Azerbaijan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Bahamas, The</t>
   </si>
   <si>
@@ -308,6 +335,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Barbados</t>
   </si>
   <si>
@@ -320,6 +350,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Belize</t>
   </si>
   <si>
@@ -344,42 +377,63 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Bolivia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Bosnia and Herzegovina</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Botswana</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Brazil</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Brunei Darussalam</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Bulgaria</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Burkina Faso</t>
   </si>
   <si>
@@ -404,12 +458,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cambodia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cameroon</t>
   </si>
   <si>
@@ -422,6 +482,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Cayman Islands</t>
   </si>
   <si>
@@ -446,30 +509,45 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>China, P.R.: Hong Kong</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>China, P.R.: Macao</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>China, P.R.: Mainland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Colombia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Comoros, Union of the</t>
   </si>
   <si>
@@ -482,6 +560,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Congo, Rep. of</t>
   </si>
   <si>
@@ -494,6 +575,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Côte d'Ivoire</t>
   </si>
   <si>
@@ -506,6 +590,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Curaçao and Sint Maarten</t>
   </si>
   <si>
@@ -524,6 +611,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Denmark</t>
   </si>
   <si>
@@ -548,6 +638,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Ecuador</t>
   </si>
   <si>
@@ -560,6 +653,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>El Salvador</t>
   </si>
   <si>
@@ -584,6 +680,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Ethiopia, The Federal Dem. Rep. of</t>
   </si>
   <si>
@@ -599,6 +698,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Euro Area</t>
   </si>
   <si>
@@ -665,12 +767,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Fiji, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>French Polynesia</t>
   </si>
   <si>
@@ -692,9 +800,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Georgia</t>
   </si>
   <si>
@@ -710,12 +815,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Gibraltar</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Greenland</t>
   </si>
   <si>
@@ -776,6 +887,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Grenada</t>
   </si>
   <si>
@@ -788,12 +902,18 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Guernsey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Guinea</t>
   </si>
   <si>
@@ -809,6 +929,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Guinea-Bissau</t>
   </si>
   <si>
@@ -821,6 +944,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Haiti</t>
   </si>
   <si>
@@ -830,33 +956,42 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Honduras</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Hungary</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Iceland</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>India</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Indonesia</t>
   </si>
   <si>
@@ -878,12 +1013,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Isle of Man</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Israel</t>
   </si>
   <si>
@@ -902,18 +1043,27 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Japan</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Jersey</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Jordan</t>
   </si>
   <si>
@@ -926,24 +1076,36 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Kenya</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Kiribati</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Korea, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Kosovo, Rep. of</t>
   </si>
   <si>
@@ -956,12 +1118,18 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Kyrgyz Rep.</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Lao People's Dem. Rep.</t>
   </si>
   <si>
@@ -971,6 +1139,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Lebanon</t>
   </si>
   <si>
@@ -983,6 +1154,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Liberia</t>
   </si>
   <si>
@@ -995,6 +1169,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Libya</t>
   </si>
   <si>
@@ -1016,6 +1193,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Lithuania</t>
   </si>
   <si>
@@ -1106,12 +1286,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Madagascar, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Malawi</t>
   </si>
   <si>
@@ -1121,18 +1307,27 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Malaysia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Maldives</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mali</t>
   </si>
   <si>
@@ -1154,18 +1349,27 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mauritius</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mexico</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Micronesia, Federated States of</t>
   </si>
   <si>
@@ -1178,6 +1382,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mongolia</t>
   </si>
   <si>
@@ -1187,9 +1394,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Montenegro</t>
   </si>
   <si>
@@ -1208,6 +1412,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Mozambique, Rep. of</t>
   </si>
   <si>
@@ -1232,6 +1439,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Namibia</t>
   </si>
   <si>
@@ -1244,12 +1454,18 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Nepal</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>New Caledonia</t>
   </si>
   <si>
@@ -1271,12 +1487,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Niger</t>
   </si>
   <si>
@@ -1292,18 +1502,27 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>North Macedonia, Republic of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Norway</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Oman</t>
   </si>
   <si>
@@ -1316,6 +1535,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Palau, Rep. of</t>
   </si>
   <si>
@@ -1343,24 +1565,36 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Peru</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Philippines</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Poland, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Qatar</t>
   </si>
   <si>
@@ -1373,24 +1607,36 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Russian Federation</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Rwanda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Samoa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>San Marino, Rep. of</t>
   </si>
   <si>
@@ -1415,6 +1661,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
@@ -1433,12 +1682,18 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Seychelles</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Sierra Leone</t>
   </si>
   <si>
@@ -1448,12 +1703,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Singapore</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Sint Maarten, Kingdom of the Netherlands</t>
   </si>
   <si>
@@ -1469,12 +1730,6 @@
     <t>...</t>
   </si>
   <si>
-    <t>...</t>
-  </si>
-  <si>
-    <t>...</t>
-  </si>
-  <si>
     <t>Somalia</t>
   </si>
   <si>
@@ -1523,18 +1778,27 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>South Africa</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>South Sudan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Sri Lanka</t>
   </si>
   <si>
@@ -1553,6 +1817,9 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>St. Kitts and Nevis</t>
   </si>
   <si>
@@ -1586,12 +1853,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Suriname</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Sweden</t>
   </si>
   <si>
@@ -1604,6 +1877,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Syrian Arab Rep.</t>
   </si>
   <si>
@@ -1649,18 +1925,27 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Taiwan Province of China</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Tajikistan, Rep. of</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Tanzania, United Rep. of</t>
   </si>
   <si>
@@ -1679,12 +1964,18 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Thailand</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Timor-Leste, Dem. Rep. of</t>
   </si>
   <si>
@@ -1712,12 +2003,18 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Tunisia</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Turkey</t>
   </si>
   <si>
@@ -1727,18 +2024,27 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Uganda</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Ukraine</t>
   </si>
   <si>
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>United Arab Emirates</t>
   </si>
   <si>
@@ -1751,6 +2057,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>United States</t>
   </si>
   <si>
@@ -1772,6 +2081,9 @@
     <t>Units</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Vanuatu</t>
   </si>
   <si>
@@ -1781,10 +2093,16 @@
     <t>...</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Venezuela, Rep. Bolivariana de</t>
   </si>
   <si>
     <t>Units</t>
+  </si>
+  <si>
+    <t>...</t>
   </si>
   <si>
     <t>...</t>
@@ -2449,7 +2767,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ199"/>
+  <dimension ref="A1:AK199"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="0" showRowColHeaders="0" zoomScale="100">
       <pane xSplit="4" ySplit="7" state="frozen" topLeftCell="E8"/>
@@ -2493,6 +2811,7 @@
     <col min="34" max="34" width="9.710938" customWidth="1"/>
     <col min="35" max="35" width="9.710938" customWidth="1"/>
     <col min="36" max="36" width="9.710938" customWidth="1"/>
+    <col min="37" max="37" width="9.710938" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="13.500000" customHeight="1">
@@ -2532,6 +2851,7 @@
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
       <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
     </row>
     <row r="2" ht="18.750000" customHeight="1">
       <c r="A2" s="1"/>
@@ -2572,6 +2892,7 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
       <c r="AJ2" s="1"/>
+      <c r="AK2" s="1"/>
     </row>
     <row r="3" ht="31.500000" customHeight="1">
       <c r="A3" s="1"/>
@@ -2612,6 +2933,7 @@
       <c r="AH3" s="1"/>
       <c r="AI3" s="1"/>
       <c r="AJ3" s="1"/>
+      <c r="AK3" s="1"/>
     </row>
     <row r="4" ht="13.500000" customHeight="1">
       <c r="A4" s="1"/>
@@ -2650,6 +2972,7 @@
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
       <c r="AJ4" s="1"/>
+      <c r="AK4" s="1"/>
     </row>
     <row r="5" ht="14.250000" customHeight="1">
       <c r="A5" s="1"/>
@@ -2690,6 +3013,7 @@
       <c r="AH5" s="1"/>
       <c r="AI5" s="1"/>
       <c r="AJ5" s="1"/>
+      <c r="AK5" s="1"/>
     </row>
     <row r="6" ht="13.500000" customHeight="1">
       <c r="A6" s="1"/>
@@ -2728,6 +3052,7 @@
       <c r="AH6" s="1"/>
       <c r="AI6" s="1"/>
       <c r="AJ6" s="1"/>
+      <c r="AK6" s="1"/>
     </row>
     <row r="7" ht="24.000000" customHeight="1">
       <c r="A7" s="1"/>
@@ -2833,17 +3158,20 @@
       <c r="AI7" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="AJ7" s="10" t="s">
+      <c r="AJ7" s="9" t="s">
         <v>37</v>
+      </c>
+      <c r="AK7" s="10" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" ht="14.250000" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" s="13" t="str">
         <v/>
@@ -2936,22 +3264,25 @@
         <v>77.260388256410295</v>
       </c>
       <c r="AH8" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="AI8" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AJ8" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="AK8" s="15" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="9" ht="14.250000" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D9" s="18" t="str">
         <v/>
@@ -3051,15 +3382,18 @@
       </c>
       <c r="AJ9" s="20">
         <v>106.23666666666701</v>
+      </c>
+      <c r="AK9" s="20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" ht="14.250000" customHeight="1">
       <c r="A10" s="1"/>
       <c r="B10" s="16" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D10" s="18" t="str">
         <v/>
@@ -3159,99 +3493,102 @@
       </c>
       <c r="AJ10" s="22">
         <v>138.08373333333299</v>
+      </c>
+      <c r="AK10" s="22" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="11" ht="14.250000" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="16" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D11" s="18" t="str">
         <v/>
       </c>
       <c r="E11" s="19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F11" s="20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="H11" s="20" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="I11" s="20" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="J11" s="20" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="K11" s="20" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M11" s="20" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="N11" s="20" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="O11" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="P11" s="20" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="Q11" s="20" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="R11" s="20" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="S11" s="20" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="T11" s="20" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="U11" s="20" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="V11" s="20" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="W11" s="20" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="X11" s="20" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="Y11" s="20" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="Z11" s="20" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="AA11" s="20" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="AB11" s="20" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="AC11" s="20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="AD11" s="20" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="AE11" s="20" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="AF11" s="20">
         <v>0.83856632369848805</v>
@@ -3267,15 +3604,18 @@
       </c>
       <c r="AJ11" s="20">
         <v>0.87424415077319195</v>
+      </c>
+      <c r="AK11" s="20">
+        <v>0.89101231472579301</v>
       </c>
     </row>
     <row r="12" ht="14.250000" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="16" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="D12" s="18" t="str">
         <v/>
@@ -3375,15 +3715,18 @@
       </c>
       <c r="AJ12" s="22">
         <v>590.22762201518299</v>
+      </c>
+      <c r="AK12" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" ht="14.250000" customHeight="1">
       <c r="A13" s="1"/>
       <c r="B13" s="16" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D13" s="18" t="str">
         <v/>
@@ -3482,16 +3825,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AJ13" s="20">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AK13" s="20">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="14" ht="14.250000" customHeight="1">
       <c r="A14" s="1"/>
       <c r="B14" s="16" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D14" s="18" t="str">
         <v/>
@@ -3590,16 +3936,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AJ14" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AK14" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="15" ht="14.250000" customHeight="1">
       <c r="A15" s="1"/>
       <c r="B15" s="16" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D15" s="18" t="str">
         <v/>
@@ -3699,15 +4048,18 @@
       </c>
       <c r="AJ15" s="20">
         <v>100.382633333333</v>
+      </c>
+      <c r="AK15" s="20" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="16" ht="14.250000" customHeight="1">
       <c r="A16" s="1"/>
       <c r="B16" s="16" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D16" s="18" t="str">
         <v/>
@@ -3807,15 +4159,18 @@
       </c>
       <c r="AJ16" s="22">
         <v>480.68054112554103</v>
+      </c>
+      <c r="AK16" s="22" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="17" ht="24.000000" customHeight="1">
       <c r="A17" s="1"/>
       <c r="B17" s="16" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D17" s="18" t="str">
         <v/>
@@ -3914,16 +4269,19 @@
         <v>1.79</v>
       </c>
       <c r="AJ17" s="20">
+        <v>1.79</v>
+      </c>
+      <c r="AK17" s="20">
         <v>1.79</v>
       </c>
     </row>
     <row r="18" ht="14.250000" customHeight="1">
       <c r="A18" s="1"/>
       <c r="B18" s="16" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D18" s="18" t="str">
         <v/>
@@ -4023,15 +4381,18 @@
       </c>
       <c r="AJ18" s="22">
         <v>1.3722321181403501</v>
+      </c>
+      <c r="AK18" s="22" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" ht="14.250000" customHeight="1">
       <c r="A19" s="1"/>
       <c r="B19" s="16" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D19" s="18" t="str">
         <v/>
@@ -4131,15 +4492,18 @@
       </c>
       <c r="AJ19" s="20">
         <v>1.7</v>
+      </c>
+      <c r="AK19" s="20" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="20" ht="14.250000" customHeight="1">
       <c r="A20" s="1"/>
       <c r="B20" s="16" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="D20" s="18" t="str">
         <v/>
@@ -4238,16 +4602,19 @@
         <v>1</v>
       </c>
       <c r="AJ20" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK20" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="21" ht="14.250000" customHeight="1">
       <c r="A21" s="1"/>
       <c r="B21" s="16" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="D21" s="18" t="str">
         <v/>
@@ -4346,16 +4713,19 @@
         <v>0.376</v>
       </c>
       <c r="AJ21" s="20">
+        <v>0.376</v>
+      </c>
+      <c r="AK21" s="20">
         <v>0.376</v>
       </c>
     </row>
     <row r="22" ht="14.250000" customHeight="1">
       <c r="A22" s="1"/>
       <c r="B22" s="16" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="D22" s="18" t="str">
         <v/>
@@ -4455,15 +4825,18 @@
       </c>
       <c r="AJ22" s="22">
         <v>85.729038333333307</v>
+      </c>
+      <c r="AK22" s="22" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23" ht="14.250000" customHeight="1">
       <c r="A23" s="1"/>
       <c r="B23" s="16" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="D23" s="18" t="str">
         <v/>
@@ -4562,16 +4935,19 @@
         <v>2</v>
       </c>
       <c r="AJ23" s="20">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="24" ht="14.250000" customHeight="1">
       <c r="A24" s="1"/>
       <c r="B24" s="16" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D24" s="18" t="str">
         <v/>
@@ -4671,15 +5047,18 @@
       </c>
       <c r="AJ24" s="22">
         <v>2.49006666666667</v>
+      </c>
+      <c r="AK24" s="22" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="25" ht="14.250000" customHeight="1">
       <c r="A25" s="1"/>
       <c r="B25" s="16" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="D25" s="18" t="str">
         <v/>
@@ -4778,16 +5157,19 @@
         <v>2</v>
       </c>
       <c r="AJ25" s="20">
+        <v>2</v>
+      </c>
+      <c r="AK25" s="20">
         <v>2</v>
       </c>
     </row>
     <row r="26" ht="14.250000" customHeight="1">
       <c r="A26" s="1"/>
       <c r="B26" s="16" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="D26" s="18" t="str">
         <v/>
@@ -4887,15 +5269,18 @@
       </c>
       <c r="AJ26" s="22">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK26" s="22">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="27" ht="14.250000" customHeight="1">
       <c r="A27" s="1"/>
       <c r="B27" s="16" t="s">
-        <v>106</v>
+        <v>117</v>
       </c>
       <c r="C27" s="17" t="s">
-        <v>107</v>
+        <v>118</v>
       </c>
       <c r="D27" s="18" t="str">
         <v/>
@@ -4994,16 +5379,19 @@
         <v>1</v>
       </c>
       <c r="AJ27" s="20">
+        <v>1</v>
+      </c>
+      <c r="AK27" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="28" ht="14.250000" customHeight="1">
       <c r="A28" s="1"/>
       <c r="B28" s="16" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D28" s="18" t="str">
         <v/>
@@ -5103,15 +5491,18 @@
       </c>
       <c r="AJ28" s="22">
         <v>74.983691578947401</v>
+      </c>
+      <c r="AK28" s="22" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29" ht="14.250000" customHeight="1">
       <c r="A29" s="1"/>
       <c r="B29" s="16" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D29" s="18" t="str">
         <v/>
@@ -5211,15 +5602,18 @@
       </c>
       <c r="AJ29" s="20">
         <v>6.9100000000000001</v>
+      </c>
+      <c r="AK29" s="20" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="30" ht="14.250000" customHeight="1">
       <c r="A30" s="1"/>
       <c r="B30" s="16" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="D30" s="18" t="str">
         <v/>
@@ -5319,15 +5713,18 @@
       </c>
       <c r="AJ30" s="22">
         <v>1.70984798172043</v>
+      </c>
+      <c r="AK30" s="22" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="31" ht="14.250000" customHeight="1">
       <c r="A31" s="1"/>
       <c r="B31" s="16" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C31" s="17" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="D31" s="18" t="str">
         <v/>
@@ -5427,15 +5824,18 @@
       </c>
       <c r="AJ31" s="20">
         <v>11.511433333333301</v>
+      </c>
+      <c r="AK31" s="20" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="32" ht="14.250000" customHeight="1">
       <c r="A32" s="1"/>
       <c r="B32" s="16" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="D32" s="18" t="str">
         <v/>
@@ -5535,15 +5935,18 @@
       </c>
       <c r="AJ32" s="22">
         <v>5.5820797826086999</v>
+      </c>
+      <c r="AK32" s="22" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="33" ht="14.250000" customHeight="1">
       <c r="A33" s="1"/>
       <c r="B33" s="16" t="s">
-        <v>118</v>
+        <v>134</v>
       </c>
       <c r="C33" s="17" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="D33" s="18" t="str">
         <v/>
@@ -5643,15 +6046,18 @@
       </c>
       <c r="AJ33" s="20">
         <v>1.3577713450292399</v>
+      </c>
+      <c r="AK33" s="20" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="34" ht="14.250000" customHeight="1">
       <c r="A34" s="1"/>
       <c r="B34" s="16" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="C34" s="17" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D34" s="18" t="str">
         <v/>
@@ -5751,15 +6157,18 @@
       </c>
       <c r="AJ34" s="22">
         <v>1.71006666666667</v>
+      </c>
+      <c r="AK34" s="22" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="35" ht="14.250000" customHeight="1">
       <c r="A35" s="1"/>
       <c r="B35" s="16" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="C35" s="17" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="D35" s="18" t="str">
         <v/>
@@ -5859,15 +6268,18 @@
       </c>
       <c r="AJ35" s="20">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK35" s="20">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="36" ht="14.250000" customHeight="1">
       <c r="A36" s="1"/>
       <c r="B36" s="16" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="D36" s="18" t="str">
         <v/>
@@ -5965,17 +6377,20 @@
       <c r="AI36" s="22">
         <v>1983.584697</v>
       </c>
-      <c r="AJ36" s="22" t="s">
-        <v>126</v>
+      <c r="AJ36" s="22">
+        <v>1998.47956521739</v>
+      </c>
+      <c r="AK36" s="22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="37" ht="14.250000" customHeight="1">
       <c r="A37" s="1"/>
       <c r="B37" s="16" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="C37" s="17" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
       <c r="D37" s="18" t="str">
         <v/>
@@ -6074,16 +6489,19 @@
         <v>93.514978354978396</v>
       </c>
       <c r="AJ37" s="20" t="s">
-        <v>129</v>
+        <v>147</v>
+      </c>
+      <c r="AK37" s="20" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="38" ht="14.250000" customHeight="1">
       <c r="A38" s="1"/>
       <c r="B38" s="16" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="C38" s="17" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="D38" s="18" t="str">
         <v/>
@@ -6183,15 +6601,18 @@
       </c>
       <c r="AJ38" s="22">
         <v>4107.8130824372802</v>
+      </c>
+      <c r="AK38" s="22" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="39" ht="14.250000" customHeight="1">
       <c r="A39" s="1"/>
       <c r="B39" s="16" t="s">
-        <v>132</v>
+        <v>152</v>
       </c>
       <c r="C39" s="17" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="D39" s="18" t="str">
         <v/>
@@ -6291,15 +6712,18 @@
       </c>
       <c r="AJ39" s="20">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK39" s="20">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="40" ht="14.250000" customHeight="1">
       <c r="A40" s="1"/>
       <c r="B40" s="16" t="s">
-        <v>134</v>
+        <v>154</v>
       </c>
       <c r="C40" s="17" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="D40" s="18" t="str">
         <v/>
@@ -6399,15 +6823,18 @@
       </c>
       <c r="AJ40" s="22">
         <v>1.25897562678063</v>
+      </c>
+      <c r="AK40" s="22" t="s">
+        <v>156</v>
       </c>
     </row>
     <row r="41" ht="14.250000" customHeight="1">
       <c r="A41" s="1"/>
       <c r="B41" s="16" t="s">
-        <v>136</v>
+        <v>157</v>
       </c>
       <c r="C41" s="17" t="s">
-        <v>137</v>
+        <v>158</v>
       </c>
       <c r="D41" s="18" t="str">
         <v/>
@@ -6506,16 +6933,19 @@
         <v>0.83333000000000002</v>
       </c>
       <c r="AJ41" s="20">
+        <v>0.83333000000000002</v>
+      </c>
+      <c r="AK41" s="20">
         <v>0.83333000000000002</v>
       </c>
     </row>
     <row r="42" ht="14.250000" customHeight="1">
       <c r="A42" s="1"/>
       <c r="B42" s="16" t="s">
-        <v>138</v>
+        <v>159</v>
       </c>
       <c r="C42" s="17" t="s">
-        <v>139</v>
+        <v>160</v>
       </c>
       <c r="D42" s="18" t="str">
         <v/>
@@ -6615,15 +7045,18 @@
       </c>
       <c r="AJ42" s="22">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK42" s="22">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="43" ht="14.250000" customHeight="1">
       <c r="A43" s="1"/>
       <c r="B43" s="16" t="s">
-        <v>140</v>
+        <v>161</v>
       </c>
       <c r="C43" s="17" t="s">
-        <v>141</v>
+        <v>162</v>
       </c>
       <c r="D43" s="18" t="str">
         <v/>
@@ -6723,15 +7156,18 @@
       </c>
       <c r="AJ43" s="20">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK43" s="20">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="44" ht="14.250000" customHeight="1">
       <c r="A44" s="1"/>
       <c r="B44" s="16" t="s">
-        <v>142</v>
+        <v>163</v>
       </c>
       <c r="C44" s="17" t="s">
-        <v>143</v>
+        <v>164</v>
       </c>
       <c r="D44" s="18" t="str">
         <v/>
@@ -6831,15 +7267,18 @@
       </c>
       <c r="AJ44" s="22">
         <v>824.24673308270701</v>
+      </c>
+      <c r="AK44" s="22" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="45" ht="14.250000" customHeight="1">
       <c r="A45" s="1"/>
       <c r="B45" s="16" t="s">
-        <v>144</v>
+        <v>166</v>
       </c>
       <c r="C45" s="17" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="D45" s="18" t="str">
         <v/>
@@ -6939,15 +7378,18 @@
       </c>
       <c r="AJ45" s="20">
         <v>7.79</v>
+      </c>
+      <c r="AK45" s="20" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="46" ht="14.250000" customHeight="1">
       <c r="A46" s="1"/>
       <c r="B46" s="16" t="s">
-        <v>146</v>
+        <v>169</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>147</v>
+        <v>170</v>
       </c>
       <c r="D46" s="18" t="str">
         <v/>
@@ -7047,15 +7489,18 @@
       </c>
       <c r="AJ46" s="22">
         <v>8.0231556666666695</v>
+      </c>
+      <c r="AK46" s="22" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="47" ht="14.250000" customHeight="1">
       <c r="A47" s="1"/>
       <c r="B47" s="16" t="s">
-        <v>148</v>
+        <v>172</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="D47" s="18" t="str">
         <v/>
@@ -7155,15 +7600,18 @@
       </c>
       <c r="AJ47" s="20">
         <v>6.3895293464052303</v>
+      </c>
+      <c r="AK47" s="20" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="48" ht="14.250000" customHeight="1">
       <c r="A48" s="1"/>
       <c r="B48" s="16" t="s">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="C48" s="17" t="s">
-        <v>151</v>
+        <v>176</v>
       </c>
       <c r="D48" s="18" t="str">
         <v/>
@@ -7263,15 +7711,18 @@
       </c>
       <c r="AJ48" s="22">
         <v>3872.6618989898998</v>
+      </c>
+      <c r="AK48" s="22" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="49" ht="14.250000" customHeight="1">
       <c r="A49" s="1"/>
       <c r="B49" s="16" t="s">
-        <v>152</v>
+        <v>178</v>
       </c>
       <c r="C49" s="17" t="s">
-        <v>153</v>
+        <v>179</v>
       </c>
       <c r="D49" s="18" t="str">
         <v/>
@@ -7371,15 +7822,18 @@
       </c>
       <c r="AJ49" s="20">
         <v>430.22008620335498</v>
+      </c>
+      <c r="AK49" s="20">
+        <v>438.34932369794001</v>
       </c>
     </row>
     <row r="50" ht="14.250000" customHeight="1">
       <c r="A50" s="1"/>
       <c r="B50" s="16" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="C50" s="17" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="D50" s="18" t="str">
         <v/>
@@ -7479,15 +7933,18 @@
       </c>
       <c r="AJ50" s="22">
         <v>1998.96782169521</v>
+      </c>
+      <c r="AK50" s="22" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="51" ht="14.250000" customHeight="1">
       <c r="A51" s="1"/>
       <c r="B51" s="16" t="s">
-        <v>156</v>
+        <v>183</v>
       </c>
       <c r="C51" s="17" t="s">
-        <v>157</v>
+        <v>184</v>
       </c>
       <c r="D51" s="18" t="str">
         <v/>
@@ -7587,15 +8044,18 @@
       </c>
       <c r="AJ51" s="20">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK51" s="20">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="52" ht="14.250000" customHeight="1">
       <c r="A52" s="1"/>
       <c r="B52" s="16" t="s">
-        <v>158</v>
+        <v>185</v>
       </c>
       <c r="C52" s="17" t="s">
-        <v>159</v>
+        <v>186</v>
       </c>
       <c r="D52" s="18" t="str">
         <v/>
@@ -7695,15 +8155,18 @@
       </c>
       <c r="AJ52" s="22">
         <v>635.115064516129</v>
+      </c>
+      <c r="AK52" s="22" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="53" ht="14.250000" customHeight="1">
       <c r="A53" s="1"/>
       <c r="B53" s="16" t="s">
-        <v>160</v>
+        <v>188</v>
       </c>
       <c r="C53" s="17" t="s">
-        <v>161</v>
+        <v>189</v>
       </c>
       <c r="D53" s="18" t="str">
         <v/>
@@ -7803,15 +8266,18 @@
       </c>
       <c r="AJ53" s="20">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK53" s="20">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="54" ht="14.250000" customHeight="1">
       <c r="A54" s="1"/>
       <c r="B54" s="16" t="s">
-        <v>162</v>
+        <v>190</v>
       </c>
       <c r="C54" s="17" t="s">
-        <v>163</v>
+        <v>191</v>
       </c>
       <c r="D54" s="18" t="str">
         <v/>
@@ -7911,15 +8377,18 @@
       </c>
       <c r="AJ54" s="22">
         <v>6.5672459999999999</v>
+      </c>
+      <c r="AK54" s="22" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="55" ht="14.250000" customHeight="1">
       <c r="A55" s="1"/>
       <c r="B55" s="16" t="s">
-        <v>164</v>
+        <v>193</v>
       </c>
       <c r="C55" s="17" t="s">
-        <v>165</v>
+        <v>194</v>
       </c>
       <c r="D55" s="18" t="str">
         <v/>
@@ -8018,16 +8487,19 @@
         <v>1.79</v>
       </c>
       <c r="AJ55" s="20">
+        <v>1.79</v>
+      </c>
+      <c r="AK55" s="20">
         <v>1.79</v>
       </c>
     </row>
     <row r="56" ht="24.000000" customHeight="1">
       <c r="A56" s="1"/>
       <c r="B56" s="16" t="s">
-        <v>166</v>
+        <v>195</v>
       </c>
       <c r="C56" s="17" t="s">
-        <v>167</v>
+        <v>196</v>
       </c>
       <c r="D56" s="18" t="str">
         <v/>
@@ -8126,16 +8598,19 @@
         <v>1.79</v>
       </c>
       <c r="AJ56" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="AK56" s="22">
         <v>1.79</v>
       </c>
     </row>
     <row r="57" ht="14.250000" customHeight="1">
       <c r="A57" s="1"/>
       <c r="B57" s="16" t="s">
-        <v>168</v>
+        <v>197</v>
       </c>
       <c r="C57" s="17" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="D57" s="18" t="str">
         <v/>
@@ -8235,15 +8710,18 @@
       </c>
       <c r="AJ57" s="20">
         <v>22.186666666666699</v>
+      </c>
+      <c r="AK57" s="20" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="58" ht="14.250000" customHeight="1">
       <c r="A58" s="1"/>
       <c r="B58" s="16" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="C58" s="17" t="s">
-        <v>171</v>
+        <v>201</v>
       </c>
       <c r="D58" s="18" t="str">
         <v/>
@@ -8343,15 +8821,18 @@
       </c>
       <c r="AJ58" s="22">
         <v>6.5030697633333299</v>
+      </c>
+      <c r="AK58" s="22">
+        <v>6.6301126166666702</v>
       </c>
     </row>
     <row r="59" ht="14.250000" customHeight="1">
       <c r="A59" s="1"/>
       <c r="B59" s="16" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="C59" s="17" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="D59" s="18" t="str">
         <v/>
@@ -8450,16 +8931,19 @@
         <v>177.721</v>
       </c>
       <c r="AJ59" s="20">
+        <v>177.721</v>
+      </c>
+      <c r="AK59" s="20">
         <v>177.721</v>
       </c>
     </row>
     <row r="60" ht="14.250000" customHeight="1">
       <c r="A60" s="1"/>
       <c r="B60" s="16" t="s">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="C60" s="17" t="s">
-        <v>175</v>
+        <v>205</v>
       </c>
       <c r="D60" s="18" t="str">
         <v/>
@@ -8558,16 +9042,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AJ60" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AK60" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="61" ht="14.250000" customHeight="1">
       <c r="A61" s="1"/>
       <c r="B61" s="16" t="s">
-        <v>176</v>
+        <v>206</v>
       </c>
       <c r="C61" s="17" t="s">
-        <v>177</v>
+        <v>207</v>
       </c>
       <c r="D61" s="18" t="str">
         <v/>
@@ -8667,15 +9154,18 @@
       </c>
       <c r="AJ61" s="20">
         <v>56.7986</v>
+      </c>
+      <c r="AK61" s="20" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="62" ht="14.250000" customHeight="1">
       <c r="A62" s="1"/>
       <c r="B62" s="16" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
       <c r="C62" s="17" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="D62" s="18" t="str">
         <v/>
@@ -8774,16 +9264,19 @@
         <v>1</v>
       </c>
       <c r="AJ62" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK62" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="63" ht="14.250000" customHeight="1">
       <c r="A63" s="1"/>
       <c r="B63" s="16" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
       <c r="C63" s="17" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="D63" s="18" t="str">
         <v/>
@@ -8883,15 +9376,18 @@
       </c>
       <c r="AJ63" s="20">
         <v>15.660745853269599</v>
+      </c>
+      <c r="AK63" s="20" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="64" ht="14.250000" customHeight="1">
       <c r="A64" s="1"/>
       <c r="B64" s="16" t="s">
-        <v>182</v>
+        <v>214</v>
       </c>
       <c r="C64" s="17" t="s">
-        <v>183</v>
+        <v>215</v>
       </c>
       <c r="D64" s="18" t="str">
         <v/>
@@ -8990,16 +9486,19 @@
         <v>1</v>
       </c>
       <c r="AJ64" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK64" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="65" ht="14.250000" customHeight="1">
       <c r="A65" s="1"/>
       <c r="B65" s="16" t="s">
-        <v>184</v>
+        <v>216</v>
       </c>
       <c r="C65" s="17" t="s">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="D65" s="18" t="str">
         <v/>
@@ -9099,15 +9598,18 @@
       </c>
       <c r="AJ65" s="20">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK65" s="20">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="66" ht="14.250000" customHeight="1">
       <c r="A66" s="1"/>
       <c r="B66" s="16" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
       <c r="C66" s="17" t="s">
-        <v>187</v>
+        <v>219</v>
       </c>
       <c r="D66" s="18" t="str">
         <v/>
@@ -9206,16 +9708,19 @@
         <v>15.074999999999999</v>
       </c>
       <c r="AJ66" s="22">
+        <v>15.074999999999999</v>
+      </c>
+      <c r="AK66" s="22">
         <v>15.074999999999999</v>
       </c>
     </row>
     <row r="67" ht="14.250000" customHeight="1">
       <c r="A67" s="1"/>
       <c r="B67" s="16" t="s">
-        <v>188</v>
+        <v>220</v>
       </c>
       <c r="C67" s="17" t="s">
-        <v>189</v>
+        <v>221</v>
       </c>
       <c r="D67" s="18" t="str">
         <v/>
@@ -9315,15 +9820,18 @@
       </c>
       <c r="AJ67" s="20">
         <v>15.4068281960476</v>
+      </c>
+      <c r="AK67" s="20" t="s">
+        <v>222</v>
       </c>
     </row>
     <row r="68" ht="24.000000" customHeight="1">
       <c r="A68" s="1"/>
       <c r="B68" s="16" t="s">
-        <v>190</v>
+        <v>223</v>
       </c>
       <c r="C68" s="17" t="s">
-        <v>191</v>
+        <v>224</v>
       </c>
       <c r="D68" s="18" t="str">
         <v/>
@@ -9416,94 +9924,97 @@
         <v>39.893328835725697</v>
       </c>
       <c r="AH68" s="22" t="s">
-        <v>192</v>
+        <v>225</v>
       </c>
       <c r="AI68" s="22" t="s">
-        <v>193</v>
+        <v>226</v>
       </c>
       <c r="AJ68" s="22" t="s">
-        <v>194</v>
+        <v>227</v>
+      </c>
+      <c r="AK68" s="22" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="69" ht="14.250000" customHeight="1">
       <c r="A69" s="1"/>
       <c r="B69" s="16" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
       <c r="C69" s="17" t="s">
-        <v>196</v>
+        <v>230</v>
       </c>
       <c r="D69" s="18" t="str">
         <v/>
       </c>
       <c r="E69" s="19">
-        <v>0.73012326334966404</v>
+        <v>0.73012326334969102</v>
       </c>
       <c r="F69" s="20">
-        <v>0.72935599042426202</v>
+        <v>0.72935599042424104</v>
       </c>
       <c r="G69" s="20">
-        <v>0.75439865854202204</v>
+        <v>0.75439865854201704</v>
       </c>
       <c r="H69" s="20">
         <v>0.80012501953430204</v>
       </c>
       <c r="I69" s="20">
-        <v>0.88798680705315003</v>
+        <v>0.88798680705311905</v>
       </c>
       <c r="J69" s="20">
-        <v>0.90475551171220203</v>
+        <v>0.90475551171223501</v>
       </c>
       <c r="K69" s="20">
         <v>0.89956371159987403</v>
       </c>
       <c r="L69" s="20">
-        <v>0.91301624045195695</v>
+        <v>0.91301624045193197</v>
       </c>
       <c r="M69" s="20">
-        <v>0.90744367262944803</v>
+        <v>0.90744367262948999</v>
       </c>
       <c r="N69" s="20">
-        <v>0.88555496367181397</v>
+        <v>0.88555496367179898</v>
       </c>
       <c r="O69" s="20">
-        <v>0.89555276637606296</v>
+        <v>0.89555276637605497</v>
       </c>
       <c r="P69" s="20">
         <v>0.92683103435791603</v>
       </c>
       <c r="Q69" s="20">
-        <v>0.93914621495178796</v>
+        <v>0.93914621495180595</v>
       </c>
       <c r="R69" s="20">
-        <v>0.90733344943298999</v>
+        <v>0.907333449432982</v>
       </c>
       <c r="S69" s="20">
-        <v>0.85134807693567205</v>
+        <v>0.85134807693566505</v>
       </c>
       <c r="T69" s="20">
-        <v>0.84933933533130601</v>
+        <v>0.84933933533131301</v>
       </c>
       <c r="U69" s="20">
-        <v>0.81352780521819701</v>
+        <v>0.81352780521819001</v>
       </c>
       <c r="V69" s="20">
-        <v>0.83928492924028497</v>
+        <v>0.83928492924026998</v>
       </c>
       <c r="W69" s="20">
-        <v>0.85991802996748101</v>
+        <v>0.85991802996750999</v>
       </c>
       <c r="X69" s="20">
         <v>0.87610745457930395</v>
       </c>
       <c r="Y69" s="20">
-        <v>0.88045884483799497</v>
+        <v>0.88045884483801795</v>
       </c>
       <c r="Z69" s="20">
         <v>0.88991723769689401</v>
       </c>
       <c r="AA69" s="20">
-        <v>0.89932713978541001</v>
+        <v>0.89932713978543499</v>
       </c>
       <c r="AB69" s="20">
         <v>0.90325567216335401</v>
@@ -9512,34 +10023,37 @@
         <v>0.90689709410332697</v>
       </c>
       <c r="AD69" s="20">
-        <v>0.90792471839689504</v>
+        <v>0.90792471839690303</v>
       </c>
       <c r="AE69" s="20">
-        <v>0.85549741341652996</v>
+        <v>0.85549741341653696</v>
       </c>
       <c r="AF69" s="20">
-        <v>0.83829431610660099</v>
+        <v>0.83829431610657301</v>
       </c>
       <c r="AG69" s="20">
-        <v>0.82998047569738098</v>
+        <v>0.82998047569739397</v>
       </c>
       <c r="AH69" s="20">
-        <v>0.82929436264121303</v>
+        <v>0.82929436264124101</v>
       </c>
       <c r="AI69" s="20">
-        <v>0.84832141613122103</v>
+        <v>0.84832141613120604</v>
       </c>
       <c r="AJ69" s="20">
-        <v>0.87448839116660504</v>
+        <v>0.87448839116657495</v>
+      </c>
+      <c r="AK69" s="20">
+        <v>0.89151638579257197</v>
       </c>
     </row>
     <row r="70" ht="14.250000" customHeight="1">
       <c r="A70" s="1"/>
       <c r="B70" s="16" t="s">
-        <v>197</v>
+        <v>231</v>
       </c>
       <c r="C70" s="17" t="s">
-        <v>198</v>
+        <v>232</v>
       </c>
       <c r="D70" s="18" t="str">
         <v/>
@@ -9587,67 +10101,70 @@
         <v>6.7635086166666696</v>
       </c>
       <c r="S70" s="22" t="s">
-        <v>199</v>
+        <v>233</v>
       </c>
       <c r="T70" s="22" t="s">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="U70" s="22" t="s">
-        <v>201</v>
+        <v>235</v>
       </c>
       <c r="V70" s="22" t="s">
-        <v>202</v>
+        <v>236</v>
       </c>
       <c r="W70" s="22" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="X70" s="22" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="Y70" s="22" t="s">
-        <v>205</v>
+        <v>239</v>
       </c>
       <c r="Z70" s="22" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
       <c r="AA70" s="22" t="s">
-        <v>207</v>
+        <v>241</v>
       </c>
       <c r="AB70" s="22" t="s">
-        <v>208</v>
+        <v>242</v>
       </c>
       <c r="AC70" s="22" t="s">
-        <v>209</v>
+        <v>243</v>
       </c>
       <c r="AD70" s="22" t="s">
-        <v>210</v>
+        <v>244</v>
       </c>
       <c r="AE70" s="22" t="s">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="AF70" s="22" t="s">
-        <v>212</v>
+        <v>246</v>
       </c>
       <c r="AG70" s="22" t="s">
-        <v>213</v>
+        <v>247</v>
       </c>
       <c r="AH70" s="22" t="s">
-        <v>214</v>
+        <v>248</v>
       </c>
       <c r="AI70" s="22" t="s">
-        <v>215</v>
+        <v>249</v>
       </c>
       <c r="AJ70" s="22" t="s">
-        <v>216</v>
+        <v>250</v>
+      </c>
+      <c r="AK70" s="22" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="71" ht="14.250000" customHeight="1">
       <c r="A71" s="1"/>
       <c r="B71" s="16" t="s">
-        <v>217</v>
+        <v>252</v>
       </c>
       <c r="C71" s="17" t="s">
-        <v>218</v>
+        <v>253</v>
       </c>
       <c r="D71" s="18" t="str">
         <v/>
@@ -9747,15 +10264,18 @@
       </c>
       <c r="AJ71" s="20">
         <v>2.1053666666666699</v>
+      </c>
+      <c r="AK71" s="20" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="72" ht="14.250000" customHeight="1">
       <c r="A72" s="1"/>
       <c r="B72" s="16" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="C72" s="17" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="D72" s="18" t="str">
         <v/>
@@ -9855,15 +10375,18 @@
       </c>
       <c r="AJ72" s="22">
         <v>104.325040726821</v>
+      </c>
+      <c r="AK72" s="22">
+        <v>106.326014237164</v>
       </c>
     </row>
     <row r="73" ht="14.250000" customHeight="1">
       <c r="A73" s="1"/>
       <c r="B73" s="16" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="C73" s="17" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="D73" s="18" t="str">
         <v/>
@@ -9963,15 +10486,18 @@
       </c>
       <c r="AJ73" s="20">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK73" s="20">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="74" ht="14.250000" customHeight="1">
       <c r="A74" s="1"/>
       <c r="B74" s="16" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="C74" s="17" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="D74" s="18" t="str">
         <v/>
@@ -10066,20 +10592,23 @@
       <c r="AH74" s="22">
         <v>51.102963573642903</v>
       </c>
-      <c r="AI74" s="22" t="s">
-        <v>225</v>
-      </c>
-      <c r="AJ74" s="22" t="s">
-        <v>226</v>
+      <c r="AI74" s="22">
+        <v>51.233397702197301</v>
+      </c>
+      <c r="AJ74" s="22">
+        <v>52.272702313473602</v>
+      </c>
+      <c r="AK74" s="22" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="75" ht="14.250000" customHeight="1">
       <c r="A75" s="1"/>
       <c r="B75" s="16" t="s">
-        <v>227</v>
+        <v>262</v>
       </c>
       <c r="C75" s="17" t="s">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="D75" s="18" t="str">
         <v/>
@@ -10179,15 +10708,18 @@
       </c>
       <c r="AJ75" s="20">
         <v>3.1253333333333302</v>
+      </c>
+      <c r="AK75" s="20">
+        <v>3.1101666666666699</v>
       </c>
     </row>
     <row r="76" ht="14.250000" customHeight="1">
       <c r="A76" s="1"/>
       <c r="B76" s="16" t="s">
-        <v>229</v>
+        <v>264</v>
       </c>
       <c r="C76" s="17" t="s">
-        <v>230</v>
+        <v>265</v>
       </c>
       <c r="D76" s="18" t="str">
         <v/>
@@ -10286,16 +10818,19 @@
         <v>5.8226666666666702</v>
       </c>
       <c r="AJ76" s="22" t="s">
-        <v>231</v>
+        <v>266</v>
+      </c>
+      <c r="AK76" s="22" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="77" ht="14.250000" customHeight="1">
       <c r="A77" s="1"/>
       <c r="B77" s="16" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="C77" s="17" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="D77" s="18" t="str">
         <v/>
@@ -10395,15 +10930,18 @@
       </c>
       <c r="AJ77" s="20">
         <v>0.74180683005214298</v>
+      </c>
+      <c r="AK77" s="20" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="78" ht="14.250000" customHeight="1">
       <c r="A78" s="1"/>
       <c r="B78" s="16" t="s">
-        <v>234</v>
+        <v>271</v>
       </c>
       <c r="C78" s="17" t="s">
-        <v>235</v>
+        <v>272</v>
       </c>
       <c r="D78" s="18" t="str">
         <v/>
@@ -10451,67 +10989,70 @@
         <v>6.7635086166666696</v>
       </c>
       <c r="S78" s="22" t="s">
-        <v>236</v>
+        <v>273</v>
       </c>
       <c r="T78" s="22" t="s">
-        <v>237</v>
+        <v>274</v>
       </c>
       <c r="U78" s="22" t="s">
-        <v>238</v>
+        <v>275</v>
       </c>
       <c r="V78" s="22" t="s">
-        <v>239</v>
+        <v>276</v>
       </c>
       <c r="W78" s="22" t="s">
-        <v>240</v>
+        <v>277</v>
       </c>
       <c r="X78" s="22" t="s">
-        <v>241</v>
+        <v>278</v>
       </c>
       <c r="Y78" s="22" t="s">
-        <v>242</v>
+        <v>279</v>
       </c>
       <c r="Z78" s="22" t="s">
-        <v>243</v>
+        <v>280</v>
       </c>
       <c r="AA78" s="22" t="s">
-        <v>244</v>
+        <v>281</v>
       </c>
       <c r="AB78" s="22" t="s">
-        <v>245</v>
+        <v>282</v>
       </c>
       <c r="AC78" s="22" t="s">
-        <v>246</v>
+        <v>283</v>
       </c>
       <c r="AD78" s="22" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="AE78" s="22" t="s">
-        <v>248</v>
+        <v>285</v>
       </c>
       <c r="AF78" s="22" t="s">
-        <v>249</v>
+        <v>286</v>
       </c>
       <c r="AG78" s="22" t="s">
-        <v>250</v>
+        <v>287</v>
       </c>
       <c r="AH78" s="22" t="s">
-        <v>251</v>
+        <v>288</v>
       </c>
       <c r="AI78" s="22" t="s">
-        <v>252</v>
+        <v>289</v>
       </c>
       <c r="AJ78" s="22" t="s">
-        <v>253</v>
+        <v>290</v>
+      </c>
+      <c r="AK78" s="22" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="79" ht="14.250000" customHeight="1">
       <c r="A79" s="1"/>
       <c r="B79" s="16" t="s">
-        <v>254</v>
+        <v>292</v>
       </c>
       <c r="C79" s="17" t="s">
-        <v>255</v>
+        <v>293</v>
       </c>
       <c r="D79" s="18" t="str">
         <v/>
@@ -10610,16 +11151,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AJ79" s="20">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AK79" s="20">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="80" ht="14.250000" customHeight="1">
       <c r="A80" s="1"/>
       <c r="B80" s="16" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="C80" s="17" t="s">
-        <v>257</v>
+        <v>295</v>
       </c>
       <c r="D80" s="18" t="str">
         <v/>
@@ -10719,15 +11263,18 @@
       </c>
       <c r="AJ80" s="22">
         <v>7.72837</v>
+      </c>
+      <c r="AK80" s="22" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="81" ht="14.250000" customHeight="1">
       <c r="A81" s="1"/>
       <c r="B81" s="16" t="s">
-        <v>258</v>
+        <v>297</v>
       </c>
       <c r="C81" s="17" t="s">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="D81" s="18" t="str">
         <v/>
@@ -10827,15 +11374,18 @@
       </c>
       <c r="AJ81" s="20">
         <v>0.74180683005214298</v>
+      </c>
+      <c r="AK81" s="20" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="82" ht="14.250000" customHeight="1">
       <c r="A82" s="1"/>
       <c r="B82" s="16" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="C82" s="17" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="D82" s="18" t="str">
         <v/>
@@ -10928,22 +11478,25 @@
         <v>10049.639775507199</v>
       </c>
       <c r="AH82" s="22" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="AI82" s="22" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="AJ82" s="22" t="s">
-        <v>264</v>
+        <v>304</v>
+      </c>
+      <c r="AK82" s="22" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="83" ht="14.250000" customHeight="1">
       <c r="A83" s="1"/>
       <c r="B83" s="16" t="s">
-        <v>265</v>
+        <v>306</v>
       </c>
       <c r="C83" s="17" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="D83" s="18" t="str">
         <v/>
@@ -11043,15 +11596,18 @@
       </c>
       <c r="AJ83" s="20">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK83" s="20">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="84" ht="14.250000" customHeight="1">
       <c r="A84" s="1"/>
       <c r="B84" s="16" t="s">
-        <v>267</v>
+        <v>308</v>
       </c>
       <c r="C84" s="17" t="s">
-        <v>268</v>
+        <v>309</v>
       </c>
       <c r="D84" s="18" t="str">
         <v/>
@@ -11151,15 +11707,18 @@
       </c>
       <c r="AJ84" s="22">
         <v>208.5</v>
+      </c>
+      <c r="AK84" s="22" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="85" ht="14.250000" customHeight="1">
       <c r="A85" s="1"/>
       <c r="B85" s="16" t="s">
-        <v>269</v>
+        <v>311</v>
       </c>
       <c r="C85" s="17" t="s">
-        <v>270</v>
+        <v>312</v>
       </c>
       <c r="D85" s="18" t="str">
         <v/>
@@ -11254,20 +11813,23 @@
       <c r="AH85" s="20">
         <v>87.361161610284896</v>
       </c>
-      <c r="AI85" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="AJ85" s="20" t="s">
-        <v>272</v>
+      <c r="AI85" s="20">
+        <v>95.771242331942204</v>
+      </c>
+      <c r="AJ85" s="20">
+        <v>99.124233333333294</v>
+      </c>
+      <c r="AK85" s="20" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="86" ht="14.250000" customHeight="1">
       <c r="A86" s="1"/>
       <c r="B86" s="16" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="C86" s="17" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="D86" s="18" t="str">
         <v/>
@@ -11367,15 +11929,18 @@
       </c>
       <c r="AJ86" s="22">
         <v>24.146150709998501</v>
+      </c>
+      <c r="AK86" s="22" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="87" ht="14.250000" customHeight="1">
       <c r="A87" s="1"/>
       <c r="B87" s="16" t="s">
-        <v>275</v>
+        <v>317</v>
       </c>
       <c r="C87" s="17" t="s">
-        <v>276</v>
+        <v>318</v>
       </c>
       <c r="D87" s="18" t="str">
         <v/>
@@ -11475,15 +12040,18 @@
       </c>
       <c r="AJ87" s="20">
         <v>318.63999999999999</v>
+      </c>
+      <c r="AK87" s="20" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="88" ht="14.250000" customHeight="1">
       <c r="A88" s="1"/>
       <c r="B88" s="16" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="C88" s="17" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="D88" s="18" t="str">
         <v/>
@@ -11583,15 +12151,18 @@
       </c>
       <c r="AJ88" s="22">
         <v>129.95828282828299</v>
+      </c>
+      <c r="AK88" s="22" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="89" ht="14.250000" customHeight="1">
       <c r="A89" s="1"/>
       <c r="B89" s="16" t="s">
-        <v>279</v>
+        <v>323</v>
       </c>
       <c r="C89" s="17" t="s">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="D89" s="18" t="str">
         <v/>
@@ -11691,15 +12262,18 @@
       </c>
       <c r="AJ89" s="20">
         <v>74.928105491990806</v>
+      </c>
+      <c r="AK89" s="20" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="90" ht="14.250000" customHeight="1">
       <c r="A90" s="1"/>
       <c r="B90" s="16" t="s">
-        <v>281</v>
+        <v>326</v>
       </c>
       <c r="C90" s="17" t="s">
-        <v>282</v>
+        <v>327</v>
       </c>
       <c r="D90" s="18" t="str">
         <v/>
@@ -11799,15 +12373,18 @@
       </c>
       <c r="AJ90" s="22">
         <v>14263.623858036901</v>
+      </c>
+      <c r="AK90" s="22">
+        <v>14344.9792075517</v>
       </c>
     </row>
     <row r="91" ht="14.250000" customHeight="1">
       <c r="A91" s="1"/>
       <c r="B91" s="16" t="s">
-        <v>283</v>
+        <v>328</v>
       </c>
       <c r="C91" s="17" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="D91" s="18" t="str">
         <v/>
@@ -11906,16 +12483,19 @@
         <v>42000</v>
       </c>
       <c r="AJ91" s="20">
+        <v>42000</v>
+      </c>
+      <c r="AK91" s="20">
         <v>42000</v>
       </c>
     </row>
     <row r="92" ht="14.250000" customHeight="1">
       <c r="A92" s="1"/>
       <c r="B92" s="16" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="C92" s="17" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="D92" s="18" t="str">
         <v/>
@@ -12014,16 +12594,19 @@
         <v>1450</v>
       </c>
       <c r="AJ92" s="22" t="s">
-        <v>287</v>
+        <v>332</v>
+      </c>
+      <c r="AK92" s="22" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="93" ht="14.250000" customHeight="1">
       <c r="A93" s="1"/>
       <c r="B93" s="16" t="s">
-        <v>288</v>
+        <v>334</v>
       </c>
       <c r="C93" s="17" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
       <c r="D93" s="18" t="str">
         <v/>
@@ -12123,15 +12706,18 @@
       </c>
       <c r="AJ93" s="20">
         <v>0.74180683005214298</v>
+      </c>
+      <c r="AK93" s="20" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="94" ht="14.250000" customHeight="1">
       <c r="A94" s="1"/>
       <c r="B94" s="16" t="s">
-        <v>290</v>
+        <v>337</v>
       </c>
       <c r="C94" s="17" t="s">
-        <v>291</v>
+        <v>338</v>
       </c>
       <c r="D94" s="18" t="str">
         <v/>
@@ -12231,15 +12817,18 @@
       </c>
       <c r="AJ94" s="22">
         <v>3.1560079365079399</v>
+      </c>
+      <c r="AK94" s="22">
+        <v>3.1971563492063502</v>
       </c>
     </row>
     <row r="95" ht="14.250000" customHeight="1">
       <c r="A95" s="1"/>
       <c r="B95" s="16" t="s">
-        <v>292</v>
+        <v>339</v>
       </c>
       <c r="C95" s="17" t="s">
-        <v>293</v>
+        <v>340</v>
       </c>
       <c r="D95" s="18" t="str">
         <v/>
@@ -12335,19 +12924,22 @@
         <v>150.33648454545499</v>
       </c>
       <c r="AI95" s="20" t="s">
-        <v>294</v>
+        <v>341</v>
       </c>
       <c r="AJ95" s="20" t="s">
-        <v>295</v>
+        <v>342</v>
+      </c>
+      <c r="AK95" s="20" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="96" ht="14.250000" customHeight="1">
       <c r="A96" s="1"/>
       <c r="B96" s="16" t="s">
-        <v>296</v>
+        <v>344</v>
       </c>
       <c r="C96" s="17" t="s">
-        <v>297</v>
+        <v>345</v>
       </c>
       <c r="D96" s="18" t="str">
         <v/>
@@ -12447,15 +13039,18 @@
       </c>
       <c r="AJ96" s="22">
         <v>113.587082788671</v>
+      </c>
+      <c r="AK96" s="22" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="97" ht="14.250000" customHeight="1">
       <c r="A97" s="1"/>
       <c r="B97" s="16" t="s">
-        <v>298</v>
+        <v>347</v>
       </c>
       <c r="C97" s="17" t="s">
-        <v>299</v>
+        <v>348</v>
       </c>
       <c r="D97" s="18" t="str">
         <v/>
@@ -12555,15 +13150,18 @@
       </c>
       <c r="AJ97" s="20">
         <v>0.74180683005214298</v>
+      </c>
+      <c r="AK97" s="20" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="98" ht="14.250000" customHeight="1">
       <c r="A98" s="1"/>
       <c r="B98" s="16" t="s">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="C98" s="17" t="s">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="D98" s="18" t="str">
         <v/>
@@ -12662,16 +13260,19 @@
         <v>0.70999999999999996</v>
       </c>
       <c r="AJ98" s="22">
+        <v>0.70999999999999996</v>
+      </c>
+      <c r="AK98" s="22">
         <v>0.70999999999999996</v>
       </c>
     </row>
     <row r="99" ht="14.250000" customHeight="1">
       <c r="A99" s="1"/>
       <c r="B99" s="16" t="s">
-        <v>302</v>
+        <v>352</v>
       </c>
       <c r="C99" s="17" t="s">
-        <v>303</v>
+        <v>353</v>
       </c>
       <c r="D99" s="18" t="str">
         <v/>
@@ -12771,57 +13372,60 @@
       </c>
       <c r="AJ99" s="20">
         <v>429.86000000000001</v>
+      </c>
+      <c r="AK99" s="20" t="s">
+        <v>354</v>
       </c>
     </row>
     <row r="100" ht="14.250000" customHeight="1">
       <c r="A100" s="1"/>
       <c r="B100" s="16" t="s">
-        <v>304</v>
+        <v>355</v>
       </c>
       <c r="C100" s="17" t="s">
-        <v>305</v>
+        <v>356</v>
       </c>
       <c r="D100" s="18" t="str">
         <v/>
       </c>
       <c r="E100" s="21">
-        <v>86.326666666666696</v>
+        <v>86.326963536155205</v>
       </c>
       <c r="F100" s="22">
-        <v>87.246666666666698</v>
+        <v>87.246498578042306</v>
       </c>
       <c r="G100" s="22">
-        <v>88.239999999999995</v>
+        <v>88.2370214045214</v>
       </c>
       <c r="H100" s="22">
-        <v>89.876666666666694</v>
+        <v>89.878171717171696</v>
       </c>
       <c r="I100" s="22">
-        <v>91.526666666666699</v>
+        <v>91.524776495109805</v>
       </c>
       <c r="J100" s="22">
-        <v>95.843333333333305</v>
+        <v>95.844016780786404</v>
       </c>
       <c r="K100" s="22">
-        <v>102.966666666667</v>
+        <v>102.96717722965801</v>
       </c>
       <c r="L100" s="22">
-        <v>102.38</v>
+        <v>102.37784280055401</v>
       </c>
       <c r="M100" s="22">
-        <v>101.91</v>
+        <v>101.90994518362901</v>
       </c>
       <c r="N100" s="22">
-        <v>101.036666666667</v>
+        <v>101.035258066189</v>
       </c>
       <c r="O100" s="22">
-        <v>101.336666666667</v>
+        <v>101.337667155509</v>
       </c>
       <c r="P100" s="22">
-        <v>101.73333333333299</v>
+        <v>101.73460758904901</v>
       </c>
       <c r="Q100" s="22">
-        <v>103.413333333333</v>
+        <v>103.411566666667</v>
       </c>
       <c r="R100" s="22">
         <v>103.3593</v>
@@ -12879,15 +13483,18 @@
       </c>
       <c r="AJ100" s="22">
         <v>111.89746327360299</v>
+      </c>
+      <c r="AK100" s="22" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="101" ht="14.250000" customHeight="1">
       <c r="A101" s="1"/>
       <c r="B101" s="16" t="s">
-        <v>306</v>
+        <v>358</v>
       </c>
       <c r="C101" s="17" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
       <c r="D101" s="18" t="str">
         <v/>
@@ -12987,15 +13594,18 @@
       </c>
       <c r="AJ101" s="20">
         <v>1.3722321181403501</v>
+      </c>
+      <c r="AK101" s="20" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="102" ht="14.250000" customHeight="1">
       <c r="A102" s="1"/>
       <c r="B102" s="16" t="s">
-        <v>308</v>
+        <v>361</v>
       </c>
       <c r="C102" s="17" t="s">
-        <v>309</v>
+        <v>362</v>
       </c>
       <c r="D102" s="18" t="str">
         <v/>
@@ -13095,15 +13705,18 @@
       </c>
       <c r="AJ102" s="22">
         <v>1183.11666666667</v>
+      </c>
+      <c r="AK102" s="22" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="103" ht="14.250000" customHeight="1">
       <c r="A103" s="1"/>
       <c r="B103" s="16" t="s">
-        <v>310</v>
+        <v>364</v>
       </c>
       <c r="C103" s="17" t="s">
-        <v>311</v>
+        <v>365</v>
       </c>
       <c r="D103" s="18" t="str">
         <v/>
@@ -13203,15 +13816,18 @@
       </c>
       <c r="AJ103" s="20">
         <v>0.87424415077319195</v>
+      </c>
+      <c r="AK103" s="20">
+        <v>0.89101231472579301</v>
       </c>
     </row>
     <row r="104" ht="14.250000" customHeight="1">
       <c r="A104" s="1"/>
       <c r="B104" s="16" t="s">
-        <v>312</v>
+        <v>366</v>
       </c>
       <c r="C104" s="17" t="s">
-        <v>313</v>
+        <v>367</v>
       </c>
       <c r="D104" s="18" t="str">
         <v/>
@@ -13311,15 +13927,18 @@
       </c>
       <c r="AJ104" s="22">
         <v>0.30212678481649102</v>
+      </c>
+      <c r="AK104" s="22" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="105" ht="14.250000" customHeight="1">
       <c r="A105" s="1"/>
       <c r="B105" s="16" t="s">
-        <v>314</v>
+        <v>369</v>
       </c>
       <c r="C105" s="17" t="s">
-        <v>315</v>
+        <v>370</v>
       </c>
       <c r="D105" s="18" t="str">
         <v/>
@@ -13419,15 +14038,18 @@
       </c>
       <c r="AJ105" s="20">
         <v>84.793613189964205</v>
+      </c>
+      <c r="AK105" s="20" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="106" ht="14.250000" customHeight="1">
       <c r="A106" s="1"/>
       <c r="B106" s="16" t="s">
-        <v>316</v>
+        <v>372</v>
       </c>
       <c r="C106" s="17" t="s">
-        <v>317</v>
+        <v>373</v>
       </c>
       <c r="D106" s="18" t="str">
         <v/>
@@ -13526,16 +14148,19 @@
         <v>9572.3939393939399</v>
       </c>
       <c r="AJ106" s="22" t="s">
-        <v>318</v>
+        <v>374</v>
+      </c>
+      <c r="AK106" s="22" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="107" ht="14.250000" customHeight="1">
       <c r="A107" s="1"/>
       <c r="B107" s="16" t="s">
-        <v>319</v>
+        <v>376</v>
       </c>
       <c r="C107" s="17" t="s">
-        <v>320</v>
+        <v>377</v>
       </c>
       <c r="D107" s="18" t="str">
         <v/>
@@ -13634,16 +14259,19 @@
         <v>1507.5</v>
       </c>
       <c r="AJ107" s="20">
+        <v>1507.5</v>
+      </c>
+      <c r="AK107" s="20">
         <v>1507.5</v>
       </c>
     </row>
     <row r="108" ht="14.250000" customHeight="1">
       <c r="A108" s="1"/>
       <c r="B108" s="16" t="s">
-        <v>321</v>
+        <v>378</v>
       </c>
       <c r="C108" s="17" t="s">
-        <v>322</v>
+        <v>379</v>
       </c>
       <c r="D108" s="18" t="str">
         <v/>
@@ -13730,28 +14358,31 @@
         <v>16.906006071666699</v>
       </c>
       <c r="AF108" s="22">
-        <v>15.694940759386</v>
+        <v>15.638614823333301</v>
       </c>
       <c r="AG108" s="22">
-        <v>14.9571928200952</v>
+        <v>14.9547590256667</v>
       </c>
       <c r="AH108" s="22">
-        <v>14.128650840190501</v>
+        <v>14.128267808666701</v>
       </c>
       <c r="AI108" s="22">
-        <v>14.6410687019804</v>
+        <v>14.618083881</v>
       </c>
       <c r="AJ108" s="22">
-        <v>15.4068281960476</v>
+        <v>15.4136021403333</v>
+      </c>
+      <c r="AK108" s="22" t="s">
+        <v>380</v>
       </c>
     </row>
     <row r="109" ht="14.250000" customHeight="1">
       <c r="A109" s="1"/>
       <c r="B109" s="16" t="s">
-        <v>323</v>
+        <v>381</v>
       </c>
       <c r="C109" s="17" t="s">
-        <v>324</v>
+        <v>382</v>
       </c>
       <c r="D109" s="18" t="str">
         <v/>
@@ -13847,19 +14478,22 @@
         <v>171.87432282051299</v>
       </c>
       <c r="AI109" s="20" t="s">
-        <v>325</v>
+        <v>383</v>
       </c>
       <c r="AJ109" s="20" t="s">
-        <v>326</v>
+        <v>384</v>
+      </c>
+      <c r="AK109" s="20" t="s">
+        <v>385</v>
       </c>
     </row>
     <row r="110" ht="14.250000" customHeight="1">
       <c r="A110" s="1"/>
       <c r="B110" s="16" t="s">
-        <v>327</v>
+        <v>386</v>
       </c>
       <c r="C110" s="17" t="s">
-        <v>328</v>
+        <v>387</v>
       </c>
       <c r="D110" s="18" t="str">
         <v/>
@@ -13946,28 +14580,31 @@
         <v>1.3794435644989</v>
       </c>
       <c r="AF110" s="22" t="s">
-        <v>329</v>
+        <v>388</v>
       </c>
       <c r="AG110" s="22" t="s">
-        <v>330</v>
+        <v>389</v>
       </c>
       <c r="AH110" s="22" t="s">
-        <v>331</v>
+        <v>390</v>
       </c>
       <c r="AI110" s="22" t="s">
-        <v>332</v>
+        <v>391</v>
       </c>
       <c r="AJ110" s="22" t="s">
-        <v>333</v>
+        <v>392</v>
+      </c>
+      <c r="AK110" s="22" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="111" ht="14.250000" customHeight="1">
       <c r="A111" s="1"/>
       <c r="B111" s="16" t="s">
-        <v>334</v>
+        <v>394</v>
       </c>
       <c r="C111" s="17" t="s">
-        <v>335</v>
+        <v>395</v>
       </c>
       <c r="D111" s="18" t="str">
         <v/>
@@ -13985,97 +14622,100 @@
         <v>2.7608333333333301</v>
       </c>
       <c r="I111" s="20" t="s">
-        <v>336</v>
+        <v>396</v>
       </c>
       <c r="J111" s="20" t="s">
-        <v>337</v>
+        <v>397</v>
       </c>
       <c r="K111" s="20" t="s">
-        <v>338</v>
+        <v>398</v>
       </c>
       <c r="L111" s="20" t="s">
-        <v>339</v>
+        <v>399</v>
       </c>
       <c r="M111" s="20" t="s">
-        <v>340</v>
+        <v>400</v>
       </c>
       <c r="N111" s="20" t="s">
-        <v>341</v>
+        <v>401</v>
       </c>
       <c r="O111" s="20" t="s">
-        <v>342</v>
+        <v>402</v>
       </c>
       <c r="P111" s="20" t="s">
-        <v>343</v>
+        <v>403</v>
       </c>
       <c r="Q111" s="20" t="s">
-        <v>344</v>
+        <v>404</v>
       </c>
       <c r="R111" s="20" t="s">
-        <v>345</v>
+        <v>405</v>
       </c>
       <c r="S111" s="20" t="s">
-        <v>346</v>
+        <v>406</v>
       </c>
       <c r="T111" s="20" t="s">
-        <v>347</v>
+        <v>407</v>
       </c>
       <c r="U111" s="20" t="s">
-        <v>348</v>
+        <v>408</v>
       </c>
       <c r="V111" s="20" t="s">
-        <v>349</v>
+        <v>409</v>
       </c>
       <c r="W111" s="20" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="X111" s="20" t="s">
-        <v>351</v>
+        <v>411</v>
       </c>
       <c r="Y111" s="20" t="s">
-        <v>352</v>
+        <v>412</v>
       </c>
       <c r="Z111" s="20" t="s">
-        <v>353</v>
+        <v>413</v>
       </c>
       <c r="AA111" s="20" t="s">
-        <v>354</v>
+        <v>414</v>
       </c>
       <c r="AB111" s="20" t="s">
-        <v>355</v>
+        <v>415</v>
       </c>
       <c r="AC111" s="20" t="s">
-        <v>356</v>
+        <v>416</v>
       </c>
       <c r="AD111" s="20" t="s">
-        <v>357</v>
+        <v>417</v>
       </c>
       <c r="AE111" s="20" t="s">
-        <v>358</v>
+        <v>418</v>
       </c>
       <c r="AF111" s="20" t="s">
-        <v>359</v>
+        <v>419</v>
       </c>
       <c r="AG111" s="20" t="s">
-        <v>360</v>
+        <v>420</v>
       </c>
       <c r="AH111" s="20" t="s">
-        <v>361</v>
+        <v>421</v>
       </c>
       <c r="AI111" s="20" t="s">
-        <v>362</v>
+        <v>422</v>
       </c>
       <c r="AJ111" s="20" t="s">
-        <v>363</v>
+        <v>423</v>
+      </c>
+      <c r="AK111" s="20" t="s">
+        <v>424</v>
       </c>
     </row>
     <row r="112" ht="14.250000" customHeight="1">
       <c r="A112" s="1"/>
       <c r="B112" s="16" t="s">
-        <v>364</v>
+        <v>425</v>
       </c>
       <c r="C112" s="17" t="s">
-        <v>365</v>
+        <v>426</v>
       </c>
       <c r="D112" s="18" t="str">
         <v/>
@@ -14175,15 +14815,18 @@
       </c>
       <c r="AJ112" s="22">
         <v>3945.8741269841298</v>
+      </c>
+      <c r="AK112" s="22" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="113" ht="14.250000" customHeight="1">
       <c r="A113" s="1"/>
       <c r="B113" s="16" t="s">
-        <v>366</v>
+        <v>428</v>
       </c>
       <c r="C113" s="17" t="s">
-        <v>367</v>
+        <v>429</v>
       </c>
       <c r="D113" s="18" t="str">
         <v/>
@@ -14282,16 +14925,19 @@
         <v>818.15012014397803</v>
       </c>
       <c r="AJ113" s="20" t="s">
-        <v>368</v>
+        <v>430</v>
+      </c>
+      <c r="AK113" s="20" t="s">
+        <v>431</v>
       </c>
     </row>
     <row r="114" ht="14.250000" customHeight="1">
       <c r="A114" s="1"/>
       <c r="B114" s="16" t="s">
-        <v>369</v>
+        <v>432</v>
       </c>
       <c r="C114" s="17" t="s">
-        <v>370</v>
+        <v>433</v>
       </c>
       <c r="D114" s="18" t="str">
         <v/>
@@ -14391,15 +15037,18 @@
       </c>
       <c r="AJ114" s="22">
         <v>4.1845781366459596</v>
+      </c>
+      <c r="AK114" s="22" t="s">
+        <v>434</v>
       </c>
     </row>
     <row r="115" ht="14.250000" customHeight="1">
       <c r="A115" s="1"/>
       <c r="B115" s="16" t="s">
-        <v>371</v>
+        <v>435</v>
       </c>
       <c r="C115" s="17" t="s">
-        <v>372</v>
+        <v>436</v>
       </c>
       <c r="D115" s="18" t="str">
         <v/>
@@ -14499,15 +15148,18 @@
       </c>
       <c r="AJ115" s="20">
         <v>15.391283154121901</v>
+      </c>
+      <c r="AK115" s="20" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="116" ht="14.250000" customHeight="1">
       <c r="A116" s="1"/>
       <c r="B116" s="16" t="s">
-        <v>373</v>
+        <v>438</v>
       </c>
       <c r="C116" s="17" t="s">
-        <v>374</v>
+        <v>439</v>
       </c>
       <c r="D116" s="18" t="str">
         <v/>
@@ -14607,15 +15259,18 @@
       </c>
       <c r="AJ116" s="22">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK116" s="22">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="117" ht="14.250000" customHeight="1">
       <c r="A117" s="1"/>
       <c r="B117" s="16" t="s">
-        <v>375</v>
+        <v>440</v>
       </c>
       <c r="C117" s="17" t="s">
-        <v>376</v>
+        <v>441</v>
       </c>
       <c r="D117" s="18" t="str">
         <v/>
@@ -14708,22 +15363,25 @@
         <v>35.996666666666698</v>
       </c>
       <c r="AH117" s="20" t="s">
-        <v>377</v>
+        <v>442</v>
       </c>
       <c r="AI117" s="20" t="s">
-        <v>378</v>
+        <v>443</v>
       </c>
       <c r="AJ117" s="20" t="s">
-        <v>379</v>
+        <v>444</v>
+      </c>
+      <c r="AK117" s="20" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="118" ht="14.250000" customHeight="1">
       <c r="A118" s="1"/>
       <c r="B118" s="16" t="s">
-        <v>380</v>
+        <v>446</v>
       </c>
       <c r="C118" s="17" t="s">
-        <v>381</v>
+        <v>447</v>
       </c>
       <c r="D118" s="18" t="str">
         <v/>
@@ -14823,15 +15481,18 @@
       </c>
       <c r="AJ118" s="22">
         <v>43.192399999999999</v>
+      </c>
+      <c r="AK118" s="22" t="s">
+        <v>448</v>
       </c>
     </row>
     <row r="119" ht="14.250000" customHeight="1">
       <c r="A119" s="1"/>
       <c r="B119" s="16" t="s">
-        <v>382</v>
+        <v>449</v>
       </c>
       <c r="C119" s="17" t="s">
-        <v>383</v>
+        <v>450</v>
       </c>
       <c r="D119" s="18" t="str">
         <v/>
@@ -14931,15 +15592,18 @@
       </c>
       <c r="AJ119" s="20">
         <v>20.747966666666699</v>
+      </c>
+      <c r="AK119" s="20" t="s">
+        <v>451</v>
       </c>
     </row>
     <row r="120" ht="24.000000" customHeight="1">
       <c r="A120" s="1"/>
       <c r="B120" s="16" t="s">
-        <v>384</v>
+        <v>452</v>
       </c>
       <c r="C120" s="17" t="s">
-        <v>385</v>
+        <v>453</v>
       </c>
       <c r="D120" s="18" t="str">
         <v/>
@@ -15038,16 +15702,19 @@
         <v>1</v>
       </c>
       <c r="AJ120" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK120" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="121" ht="14.250000" customHeight="1">
       <c r="A121" s="1"/>
       <c r="B121" s="16" t="s">
-        <v>386</v>
+        <v>454</v>
       </c>
       <c r="C121" s="17" t="s">
-        <v>387</v>
+        <v>455</v>
       </c>
       <c r="D121" s="18" t="str">
         <v/>
@@ -15147,15 +15814,18 @@
       </c>
       <c r="AJ121" s="20">
         <v>17.6003845878136</v>
+      </c>
+      <c r="AK121" s="20" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="122" ht="14.250000" customHeight="1">
       <c r="A122" s="1"/>
       <c r="B122" s="16" t="s">
-        <v>388</v>
+        <v>457</v>
       </c>
       <c r="C122" s="17" t="s">
-        <v>389</v>
+        <v>458</v>
       </c>
       <c r="D122" s="18" t="str">
         <v/>
@@ -15250,20 +15920,23 @@
       <c r="AH122" s="22">
         <v>2849.5258787878802</v>
       </c>
-      <c r="AI122" s="22" t="s">
-        <v>390</v>
-      </c>
-      <c r="AJ122" s="22" t="s">
-        <v>391</v>
+      <c r="AI122" s="22">
+        <v>2848.94148148148</v>
+      </c>
+      <c r="AJ122" s="22">
+        <v>2848.9597215007202</v>
+      </c>
+      <c r="AK122" s="22" t="s">
+        <v>459</v>
       </c>
     </row>
     <row r="123" ht="14.250000" customHeight="1">
       <c r="A123" s="1"/>
       <c r="B123" s="16" t="s">
-        <v>392</v>
+        <v>460</v>
       </c>
       <c r="C123" s="17" t="s">
-        <v>393</v>
+        <v>461</v>
       </c>
       <c r="D123" s="18" t="str">
         <v/>
@@ -15363,15 +16036,18 @@
       </c>
       <c r="AJ123" s="20">
         <v>0.87424415077319195</v>
+      </c>
+      <c r="AK123" s="20">
+        <v>0.89101231472579301</v>
       </c>
     </row>
     <row r="124" ht="14.250000" customHeight="1">
       <c r="A124" s="1"/>
       <c r="B124" s="16" t="s">
-        <v>394</v>
+        <v>462</v>
       </c>
       <c r="C124" s="17" t="s">
-        <v>395</v>
+        <v>463</v>
       </c>
       <c r="D124" s="18" t="str">
         <v/>
@@ -15470,16 +16146,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AJ124" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AK124" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="125" ht="14.250000" customHeight="1">
       <c r="A125" s="1"/>
       <c r="B125" s="16" t="s">
-        <v>396</v>
+        <v>464</v>
       </c>
       <c r="C125" s="17" t="s">
-        <v>397</v>
+        <v>465</v>
       </c>
       <c r="D125" s="18" t="str">
         <v/>
@@ -15579,15 +16258,18 @@
       </c>
       <c r="AJ125" s="20">
         <v>9.1561246086230099</v>
+      </c>
+      <c r="AK125" s="20" t="s">
+        <v>466</v>
       </c>
     </row>
     <row r="126" ht="14.250000" customHeight="1">
       <c r="A126" s="1"/>
       <c r="B126" s="16" t="s">
-        <v>398</v>
+        <v>467</v>
       </c>
       <c r="C126" s="17" t="s">
-        <v>399</v>
+        <v>468</v>
       </c>
       <c r="D126" s="18" t="str">
         <v/>
@@ -15685,17 +16367,20 @@
       <c r="AI126" s="22">
         <v>63.689999999999998</v>
       </c>
-      <c r="AJ126" s="22" t="s">
-        <v>400</v>
+      <c r="AJ126" s="22">
+        <v>63.829999999999998</v>
+      </c>
+      <c r="AK126" s="22" t="s">
+        <v>469</v>
       </c>
     </row>
     <row r="127" ht="14.250000" customHeight="1">
       <c r="A127" s="1"/>
       <c r="B127" s="16" t="s">
-        <v>401</v>
+        <v>470</v>
       </c>
       <c r="C127" s="17" t="s">
-        <v>402</v>
+        <v>471</v>
       </c>
       <c r="D127" s="18" t="str">
         <v/>
@@ -15788,22 +16473,25 @@
         <v>1390.43333333333</v>
       </c>
       <c r="AH127" s="20" t="s">
-        <v>403</v>
+        <v>472</v>
       </c>
       <c r="AI127" s="20" t="s">
-        <v>404</v>
+        <v>473</v>
       </c>
       <c r="AJ127" s="20" t="s">
-        <v>405</v>
+        <v>474</v>
+      </c>
+      <c r="AK127" s="20" t="s">
+        <v>475</v>
       </c>
     </row>
     <row r="128" ht="14.250000" customHeight="1">
       <c r="A128" s="1"/>
       <c r="B128" s="16" t="s">
-        <v>406</v>
+        <v>476</v>
       </c>
       <c r="C128" s="17" t="s">
-        <v>407</v>
+        <v>477</v>
       </c>
       <c r="D128" s="18" t="str">
         <v/>
@@ -15903,15 +16591,18 @@
       </c>
       <c r="AJ128" s="22">
         <v>15.413600000000001</v>
+      </c>
+      <c r="AK128" s="22">
+        <v>15.289099999999999</v>
       </c>
     </row>
     <row r="129" ht="14.250000" customHeight="1">
       <c r="A129" s="1"/>
       <c r="B129" s="16" t="s">
-        <v>408</v>
+        <v>478</v>
       </c>
       <c r="C129" s="17" t="s">
-        <v>409</v>
+        <v>479</v>
       </c>
       <c r="D129" s="18" t="str">
         <v/>
@@ -16011,15 +16702,18 @@
       </c>
       <c r="AJ129" s="20">
         <v>1.3722321181403501</v>
+      </c>
+      <c r="AK129" s="20" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="130" ht="14.250000" customHeight="1">
       <c r="A130" s="1"/>
       <c r="B130" s="16" t="s">
-        <v>410</v>
+        <v>481</v>
       </c>
       <c r="C130" s="17" t="s">
-        <v>411</v>
+        <v>482</v>
       </c>
       <c r="D130" s="18" t="str">
         <v/>
@@ -16119,15 +16813,18 @@
       </c>
       <c r="AJ130" s="22">
         <v>119.48086997898901</v>
+      </c>
+      <c r="AK130" s="22" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="131" ht="14.250000" customHeight="1">
       <c r="A131" s="1"/>
       <c r="B131" s="16" t="s">
-        <v>412</v>
+        <v>484</v>
       </c>
       <c r="C131" s="17" t="s">
-        <v>413</v>
+        <v>485</v>
       </c>
       <c r="D131" s="18" t="str">
         <v/>
@@ -16227,15 +16924,18 @@
       </c>
       <c r="AJ131" s="20">
         <v>104.325040726821</v>
+      </c>
+      <c r="AK131" s="20">
+        <v>106.326014237164</v>
       </c>
     </row>
     <row r="132" ht="14.250000" customHeight="1">
       <c r="A132" s="1"/>
       <c r="B132" s="16" t="s">
-        <v>414</v>
+        <v>486</v>
       </c>
       <c r="C132" s="17" t="s">
-        <v>415</v>
+        <v>487</v>
       </c>
       <c r="D132" s="18" t="str">
         <v/>
@@ -16335,15 +17035,18 @@
       </c>
       <c r="AJ132" s="22">
         <v>1.4392</v>
+      </c>
+      <c r="AK132" s="22">
+        <v>1.48006666666667</v>
       </c>
     </row>
     <row r="133" ht="14.250000" customHeight="1">
       <c r="A133" s="1"/>
       <c r="B133" s="16" t="s">
-        <v>416</v>
+        <v>488</v>
       </c>
       <c r="C133" s="17" t="s">
-        <v>417</v>
+        <v>489</v>
       </c>
       <c r="D133" s="18" t="str">
         <v/>
@@ -16435,23 +17138,26 @@
       <c r="AG133" s="20">
         <v>34.910566666666703</v>
       </c>
-      <c r="AH133" s="20" t="s">
-        <v>418</v>
-      </c>
-      <c r="AI133" s="20" t="s">
-        <v>419</v>
-      </c>
-      <c r="AJ133" s="20" t="s">
-        <v>420</v>
+      <c r="AH133" s="20">
+        <v>35.082433333333299</v>
+      </c>
+      <c r="AI133" s="20">
+        <v>35.257633333333303</v>
+      </c>
+      <c r="AJ133" s="20">
+        <v>35.433433333333298</v>
+      </c>
+      <c r="AK133" s="20" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="134" ht="14.250000" customHeight="1">
       <c r="A134" s="1"/>
       <c r="B134" s="16" t="s">
-        <v>421</v>
+        <v>491</v>
       </c>
       <c r="C134" s="17" t="s">
-        <v>422</v>
+        <v>492</v>
       </c>
       <c r="D134" s="18" t="str">
         <v/>
@@ -16551,15 +17257,18 @@
       </c>
       <c r="AJ134" s="22">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK134" s="22">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="135" ht="14.250000" customHeight="1">
       <c r="A135" s="1"/>
       <c r="B135" s="16" t="s">
-        <v>423</v>
+        <v>493</v>
       </c>
       <c r="C135" s="17" t="s">
-        <v>424</v>
+        <v>494</v>
       </c>
       <c r="D135" s="18" t="str">
         <v/>
@@ -16658,16 +17367,19 @@
         <v>410.69999999999999</v>
       </c>
       <c r="AJ135" s="20" t="s">
-        <v>425</v>
+        <v>495</v>
+      </c>
+      <c r="AK135" s="20" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="136" ht="14.250000" customHeight="1">
       <c r="A136" s="1"/>
       <c r="B136" s="16" t="s">
-        <v>426</v>
+        <v>497</v>
       </c>
       <c r="C136" s="17" t="s">
-        <v>427</v>
+        <v>498</v>
       </c>
       <c r="D136" s="18" t="str">
         <v/>
@@ -16767,15 +17479,18 @@
       </c>
       <c r="AJ136" s="22">
         <v>53.930033333333299</v>
+      </c>
+      <c r="AK136" s="22" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="137" ht="14.250000" customHeight="1">
       <c r="A137" s="1"/>
       <c r="B137" s="16" t="s">
-        <v>428</v>
+        <v>500</v>
       </c>
       <c r="C137" s="17" t="s">
-        <v>429</v>
+        <v>501</v>
       </c>
       <c r="D137" s="18" t="str">
         <v/>
@@ -16875,15 +17590,18 @@
       </c>
       <c r="AJ137" s="20">
         <v>8.7200000000000006</v>
+      </c>
+      <c r="AK137" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
     <row r="138" ht="14.250000" customHeight="1">
       <c r="A138" s="1"/>
       <c r="B138" s="16" t="s">
-        <v>430</v>
+        <v>503</v>
       </c>
       <c r="C138" s="17" t="s">
-        <v>431</v>
+        <v>504</v>
       </c>
       <c r="D138" s="18" t="str">
         <v/>
@@ -16982,16 +17700,19 @@
         <v>0.38450000000000001</v>
       </c>
       <c r="AJ138" s="22">
+        <v>0.38450000000000001</v>
+      </c>
+      <c r="AK138" s="22">
         <v>0.38450000000000001</v>
       </c>
     </row>
     <row r="139" ht="14.250000" customHeight="1">
       <c r="A139" s="1"/>
       <c r="B139" s="16" t="s">
-        <v>432</v>
+        <v>505</v>
       </c>
       <c r="C139" s="17" t="s">
-        <v>433</v>
+        <v>506</v>
       </c>
       <c r="D139" s="18" t="str">
         <v/>
@@ -17091,15 +17812,18 @@
       </c>
       <c r="AJ139" s="20">
         <v>174.32779928195001</v>
+      </c>
+      <c r="AK139" s="20" t="s">
+        <v>507</v>
       </c>
     </row>
     <row r="140" ht="14.250000" customHeight="1">
       <c r="A140" s="1"/>
       <c r="B140" s="16" t="s">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="C140" s="17" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="D140" s="18" t="str">
         <v/>
@@ -17198,16 +17922,19 @@
         <v>1</v>
       </c>
       <c r="AJ140" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK140" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="141" ht="14.250000" customHeight="1">
       <c r="A141" s="1"/>
       <c r="B141" s="16" t="s">
-        <v>436</v>
+        <v>510</v>
       </c>
       <c r="C141" s="17" t="s">
-        <v>437</v>
+        <v>511</v>
       </c>
       <c r="D141" s="18" t="str">
         <v/>
@@ -17306,16 +18033,19 @@
         <v>1</v>
       </c>
       <c r="AJ141" s="20">
+        <v>1</v>
+      </c>
+      <c r="AK141" s="20">
         <v>1</v>
       </c>
     </row>
     <row r="142" ht="14.250000" customHeight="1">
       <c r="A142" s="1"/>
       <c r="B142" s="16" t="s">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="C142" s="17" t="s">
-        <v>439</v>
+        <v>513</v>
       </c>
       <c r="D142" s="18" t="str">
         <v/>
@@ -17413,17 +18143,20 @@
       <c r="AI142" s="22">
         <v>3.5087719298245599</v>
       </c>
-      <c r="AJ142" s="22" t="s">
-        <v>440</v>
+      <c r="AJ142" s="22">
+        <v>3.5087719298245599</v>
+      </c>
+      <c r="AK142" s="22" t="s">
+        <v>514</v>
       </c>
     </row>
     <row r="143" ht="14.250000" customHeight="1">
       <c r="A143" s="1"/>
       <c r="B143" s="16" t="s">
-        <v>441</v>
+        <v>515</v>
       </c>
       <c r="C143" s="17" t="s">
-        <v>442</v>
+        <v>516</v>
       </c>
       <c r="D143" s="18" t="str">
         <v/>
@@ -17523,15 +18256,18 @@
       </c>
       <c r="AJ143" s="20">
         <v>6859.3986976912001</v>
+      </c>
+      <c r="AK143" s="20" t="s">
+        <v>517</v>
       </c>
     </row>
     <row r="144" ht="14.250000" customHeight="1">
       <c r="A144" s="1"/>
       <c r="B144" s="16" t="s">
-        <v>443</v>
+        <v>518</v>
       </c>
       <c r="C144" s="17" t="s">
-        <v>444</v>
+        <v>519</v>
       </c>
       <c r="D144" s="18" t="str">
         <v/>
@@ -17631,15 +18367,18 @@
       </c>
       <c r="AJ144" s="22">
         <v>4.02387417027417</v>
+      </c>
+      <c r="AK144" s="22" t="s">
+        <v>520</v>
       </c>
     </row>
     <row r="145" ht="14.250000" customHeight="1">
       <c r="A145" s="1"/>
       <c r="B145" s="16" t="s">
-        <v>445</v>
+        <v>521</v>
       </c>
       <c r="C145" s="17" t="s">
-        <v>446</v>
+        <v>522</v>
       </c>
       <c r="D145" s="18" t="str">
         <v/>
@@ -17739,15 +18478,18 @@
       </c>
       <c r="AJ145" s="20">
         <v>50.451334126984101</v>
+      </c>
+      <c r="AK145" s="20" t="s">
+        <v>523</v>
       </c>
     </row>
     <row r="146" ht="14.250000" customHeight="1">
       <c r="A146" s="1"/>
       <c r="B146" s="16" t="s">
-        <v>447</v>
+        <v>524</v>
       </c>
       <c r="C146" s="17" t="s">
-        <v>448</v>
+        <v>525</v>
       </c>
       <c r="D146" s="18" t="str">
         <v/>
@@ -17847,15 +18589,18 @@
       </c>
       <c r="AJ146" s="22">
         <v>4.0398666666666703</v>
+      </c>
+      <c r="AK146" s="22" t="s">
+        <v>526</v>
       </c>
     </row>
     <row r="147" ht="14.250000" customHeight="1">
       <c r="A147" s="1"/>
       <c r="B147" s="16" t="s">
-        <v>449</v>
+        <v>527</v>
       </c>
       <c r="C147" s="17" t="s">
-        <v>450</v>
+        <v>528</v>
       </c>
       <c r="D147" s="18" t="str">
         <v/>
@@ -17954,16 +18699,19 @@
         <v>3.6400000000000001</v>
       </c>
       <c r="AJ147" s="20">
+        <v>3.6400000000000001</v>
+      </c>
+      <c r="AK147" s="20">
         <v>3.6400000000000001</v>
       </c>
     </row>
     <row r="148" ht="14.250000" customHeight="1">
       <c r="A148" s="1"/>
       <c r="B148" s="16" t="s">
-        <v>451</v>
+        <v>529</v>
       </c>
       <c r="C148" s="17" t="s">
-        <v>452</v>
+        <v>530</v>
       </c>
       <c r="D148" s="18" t="str">
         <v/>
@@ -18063,15 +18811,18 @@
       </c>
       <c r="AJ148" s="22">
         <v>4.3265333333333302</v>
+      </c>
+      <c r="AK148" s="22" t="s">
+        <v>531</v>
       </c>
     </row>
     <row r="149" ht="14.250000" customHeight="1">
       <c r="A149" s="1"/>
       <c r="B149" s="16" t="s">
-        <v>453</v>
+        <v>532</v>
       </c>
       <c r="C149" s="17" t="s">
-        <v>454</v>
+        <v>533</v>
       </c>
       <c r="D149" s="18" t="str">
         <v/>
@@ -18171,15 +18922,18 @@
       </c>
       <c r="AJ149" s="20">
         <v>72.598266666666703</v>
+      </c>
+      <c r="AK149" s="20" t="s">
+        <v>534</v>
       </c>
     </row>
     <row r="150" ht="14.250000" customHeight="1">
       <c r="A150" s="1"/>
       <c r="B150" s="16" t="s">
-        <v>455</v>
+        <v>535</v>
       </c>
       <c r="C150" s="17" t="s">
-        <v>456</v>
+        <v>536</v>
       </c>
       <c r="D150" s="18" t="str">
         <v/>
@@ -18279,15 +19033,18 @@
       </c>
       <c r="AJ150" s="22">
         <v>1002.8145765555601</v>
+      </c>
+      <c r="AK150" s="22" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="151" ht="14.250000" customHeight="1">
       <c r="A151" s="1"/>
       <c r="B151" s="16" t="s">
-        <v>457</v>
+        <v>538</v>
       </c>
       <c r="C151" s="17" t="s">
-        <v>458</v>
+        <v>539</v>
       </c>
       <c r="D151" s="18" t="str">
         <v/>
@@ -18387,15 +19144,18 @@
       </c>
       <c r="AJ151" s="20">
         <v>2.5857188843868699</v>
+      </c>
+      <c r="AK151" s="20" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="152" ht="14.250000" customHeight="1">
       <c r="A152" s="1"/>
       <c r="B152" s="16" t="s">
-        <v>459</v>
+        <v>541</v>
       </c>
       <c r="C152" s="17" t="s">
-        <v>460</v>
+        <v>542</v>
       </c>
       <c r="D152" s="18" t="str">
         <v/>
@@ -18495,15 +19255,18 @@
       </c>
       <c r="AJ152" s="22">
         <v>0.87424415077319195</v>
+      </c>
+      <c r="AK152" s="22">
+        <v>0.89101231472579301</v>
       </c>
     </row>
     <row r="153" ht="24.000000" customHeight="1">
       <c r="A153" s="1"/>
       <c r="B153" s="16" t="s">
-        <v>461</v>
+        <v>543</v>
       </c>
       <c r="C153" s="17" t="s">
-        <v>462</v>
+        <v>544</v>
       </c>
       <c r="D153" s="18" t="str">
         <v/>
@@ -18593,25 +19356,28 @@
         <v>20.561389538239499</v>
       </c>
       <c r="AG153" s="20" t="s">
-        <v>463</v>
+        <v>545</v>
       </c>
       <c r="AH153" s="20" t="s">
-        <v>464</v>
+        <v>546</v>
       </c>
       <c r="AI153" s="20" t="s">
-        <v>465</v>
+        <v>547</v>
       </c>
       <c r="AJ153" s="20" t="s">
-        <v>466</v>
+        <v>548</v>
+      </c>
+      <c r="AK153" s="20" t="s">
+        <v>549</v>
       </c>
     </row>
     <row r="154" ht="14.250000" customHeight="1">
       <c r="A154" s="1"/>
       <c r="B154" s="16" t="s">
-        <v>467</v>
+        <v>550</v>
       </c>
       <c r="C154" s="17" t="s">
-        <v>468</v>
+        <v>551</v>
       </c>
       <c r="D154" s="18" t="str">
         <v/>
@@ -18710,16 +19476,19 @@
         <v>3.75</v>
       </c>
       <c r="AJ154" s="22">
+        <v>3.75</v>
+      </c>
+      <c r="AK154" s="22">
         <v>3.75</v>
       </c>
     </row>
     <row r="155" ht="14.250000" customHeight="1">
       <c r="A155" s="1"/>
       <c r="B155" s="16" t="s">
-        <v>469</v>
+        <v>552</v>
       </c>
       <c r="C155" s="17" t="s">
-        <v>470</v>
+        <v>553</v>
       </c>
       <c r="D155" s="18" t="str">
         <v/>
@@ -18819,15 +19588,18 @@
       </c>
       <c r="AJ155" s="20">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK155" s="20">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="156" ht="14.250000" customHeight="1">
       <c r="A156" s="1"/>
       <c r="B156" s="16" t="s">
-        <v>471</v>
+        <v>554</v>
       </c>
       <c r="C156" s="17" t="s">
-        <v>472</v>
+        <v>555</v>
       </c>
       <c r="D156" s="18" t="str">
         <v/>
@@ -18927,15 +19699,18 @@
       </c>
       <c r="AJ156" s="22">
         <v>102.788166666667</v>
+      </c>
+      <c r="AK156" s="22" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="157" ht="14.250000" customHeight="1">
       <c r="A157" s="1"/>
       <c r="B157" s="16" t="s">
-        <v>473</v>
+        <v>557</v>
       </c>
       <c r="C157" s="17" t="s">
-        <v>474</v>
+        <v>558</v>
       </c>
       <c r="D157" s="18" t="str">
         <v/>
@@ -19035,15 +19810,18 @@
       </c>
       <c r="AJ157" s="20">
         <v>14.6904308080808</v>
+      </c>
+      <c r="AK157" s="20" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="158" ht="14.250000" customHeight="1">
       <c r="A158" s="1"/>
       <c r="B158" s="16" t="s">
-        <v>475</v>
+        <v>560</v>
       </c>
       <c r="C158" s="17" t="s">
-        <v>476</v>
+        <v>561</v>
       </c>
       <c r="D158" s="18" t="str">
         <v/>
@@ -19142,16 +19920,19 @@
         <v>10349.437485570001</v>
       </c>
       <c r="AJ158" s="22" t="s">
-        <v>477</v>
+        <v>562</v>
+      </c>
+      <c r="AK158" s="22" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="159" ht="14.250000" customHeight="1">
       <c r="A159" s="1"/>
       <c r="B159" s="16" t="s">
-        <v>478</v>
+        <v>564</v>
       </c>
       <c r="C159" s="17" t="s">
-        <v>479</v>
+        <v>565</v>
       </c>
       <c r="D159" s="18" t="str">
         <v/>
@@ -19251,15 +20032,18 @@
       </c>
       <c r="AJ159" s="20">
         <v>1.35723333333333</v>
+      </c>
+      <c r="AK159" s="20" t="s">
+        <v>566</v>
       </c>
     </row>
     <row r="160" ht="24.000000" customHeight="1">
       <c r="A160" s="1"/>
       <c r="B160" s="16" t="s">
-        <v>480</v>
+        <v>567</v>
       </c>
       <c r="C160" s="17" t="s">
-        <v>481</v>
+        <v>568</v>
       </c>
       <c r="D160" s="18" t="str">
         <v/>
@@ -19358,16 +20142,19 @@
         <v>1.79</v>
       </c>
       <c r="AJ160" s="22">
+        <v>1.79</v>
+      </c>
+      <c r="AK160" s="22">
         <v>1.79</v>
       </c>
     </row>
     <row r="161" ht="14.250000" customHeight="1">
       <c r="A161" s="1"/>
       <c r="B161" s="16" t="s">
-        <v>482</v>
+        <v>569</v>
       </c>
       <c r="C161" s="17" t="s">
-        <v>483</v>
+        <v>570</v>
       </c>
       <c r="D161" s="18" t="str">
         <v/>
@@ -19459,23 +20246,26 @@
       <c r="AG161" s="20">
         <v>8.0057960613892796</v>
       </c>
-      <c r="AH161" s="20" t="s">
-        <v>484</v>
-      </c>
-      <c r="AI161" s="20" t="s">
-        <v>485</v>
-      </c>
-      <c r="AJ161" s="20" t="s">
-        <v>486</v>
+      <c r="AH161" s="20">
+        <v>7.9920005998430304</v>
+      </c>
+      <c r="AI161" s="20">
+        <v>8.0570146584158202</v>
+      </c>
+      <c r="AJ161" s="20">
+        <v>8.0656006445491695</v>
+      </c>
+      <c r="AK161" s="20" t="s">
+        <v>571</v>
       </c>
     </row>
     <row r="162" ht="14.250000" customHeight="1">
       <c r="A162" s="1"/>
       <c r="B162" s="16" t="s">
-        <v>487</v>
+        <v>572</v>
       </c>
       <c r="C162" s="17" t="s">
-        <v>488</v>
+        <v>573</v>
       </c>
       <c r="D162" s="18" t="str">
         <v/>
@@ -19535,55 +20325,58 @@
         <v>23522.3428300095</v>
       </c>
       <c r="W162" s="22" t="s">
-        <v>489</v>
+        <v>574</v>
       </c>
       <c r="X162" s="22" t="s">
-        <v>490</v>
+        <v>575</v>
       </c>
       <c r="Y162" s="22" t="s">
-        <v>491</v>
+        <v>576</v>
       </c>
       <c r="Z162" s="22" t="s">
-        <v>492</v>
+        <v>577</v>
       </c>
       <c r="AA162" s="22" t="s">
-        <v>493</v>
+        <v>578</v>
       </c>
       <c r="AB162" s="22" t="s">
-        <v>494</v>
+        <v>579</v>
       </c>
       <c r="AC162" s="22" t="s">
-        <v>495</v>
+        <v>580</v>
       </c>
       <c r="AD162" s="22" t="s">
-        <v>496</v>
+        <v>581</v>
       </c>
       <c r="AE162" s="22" t="s">
-        <v>497</v>
+        <v>582</v>
       </c>
       <c r="AF162" s="22" t="s">
-        <v>498</v>
+        <v>583</v>
       </c>
       <c r="AG162" s="22" t="s">
-        <v>499</v>
+        <v>584</v>
       </c>
       <c r="AH162" s="22" t="s">
-        <v>500</v>
+        <v>585</v>
       </c>
       <c r="AI162" s="22" t="s">
-        <v>501</v>
+        <v>586</v>
       </c>
       <c r="AJ162" s="22" t="s">
-        <v>502</v>
+        <v>587</v>
+      </c>
+      <c r="AK162" s="22" t="s">
+        <v>588</v>
       </c>
     </row>
     <row r="163" ht="14.250000" customHeight="1">
       <c r="A163" s="1"/>
       <c r="B163" s="16" t="s">
-        <v>503</v>
+        <v>589</v>
       </c>
       <c r="C163" s="17" t="s">
-        <v>504</v>
+        <v>590</v>
       </c>
       <c r="D163" s="18" t="str">
         <v/>
@@ -19683,15 +20476,18 @@
       </c>
       <c r="AJ163" s="20">
         <v>15.4136021403333</v>
+      </c>
+      <c r="AK163" s="20" t="s">
+        <v>591</v>
       </c>
     </row>
     <row r="164" ht="14.250000" customHeight="1">
       <c r="A164" s="1"/>
       <c r="B164" s="16" t="s">
-        <v>505</v>
+        <v>592</v>
       </c>
       <c r="C164" s="17" t="s">
-        <v>506</v>
+        <v>593</v>
       </c>
       <c r="D164" s="18" t="str">
         <v/>
@@ -19791,15 +20587,18 @@
       </c>
       <c r="AJ164" s="22">
         <v>412.16729370967698</v>
+      </c>
+      <c r="AK164" s="22" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="165" ht="14.250000" customHeight="1">
       <c r="A165" s="1"/>
       <c r="B165" s="16" t="s">
-        <v>507</v>
+        <v>595</v>
       </c>
       <c r="C165" s="17" t="s">
-        <v>508</v>
+        <v>596</v>
       </c>
       <c r="D165" s="18" t="str">
         <v/>
@@ -19889,25 +20688,28 @@
         <v>185.46943825396801</v>
       </c>
       <c r="AG165" s="20" t="s">
-        <v>509</v>
+        <v>597</v>
       </c>
       <c r="AH165" s="20" t="s">
-        <v>510</v>
+        <v>598</v>
       </c>
       <c r="AI165" s="20" t="s">
-        <v>511</v>
+        <v>599</v>
       </c>
       <c r="AJ165" s="20" t="s">
-        <v>512</v>
+        <v>600</v>
+      </c>
+      <c r="AK165" s="20" t="s">
+        <v>601</v>
       </c>
     </row>
     <row r="166" ht="14.250000" customHeight="1">
       <c r="A166" s="1"/>
       <c r="B166" s="16" t="s">
-        <v>513</v>
+        <v>602</v>
       </c>
       <c r="C166" s="17" t="s">
-        <v>514</v>
+        <v>603</v>
       </c>
       <c r="D166" s="18" t="str">
         <v/>
@@ -20006,16 +20808,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AJ166" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AK166" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="167" ht="14.250000" customHeight="1">
       <c r="A167" s="1"/>
       <c r="B167" s="16" t="s">
-        <v>515</v>
+        <v>604</v>
       </c>
       <c r="C167" s="17" t="s">
-        <v>516</v>
+        <v>605</v>
       </c>
       <c r="D167" s="18" t="str">
         <v/>
@@ -20114,16 +20919,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AJ167" s="20">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AK167" s="20">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="168" ht="14.250000" customHeight="1">
       <c r="A168" s="1"/>
       <c r="B168" s="16" t="s">
-        <v>517</v>
+        <v>606</v>
       </c>
       <c r="C168" s="17" t="s">
-        <v>518</v>
+        <v>607</v>
       </c>
       <c r="D168" s="18" t="str">
         <v/>
@@ -20222,16 +21030,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AJ168" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AK168" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="169" ht="14.250000" customHeight="1">
       <c r="A169" s="1"/>
       <c r="B169" s="16" t="s">
-        <v>519</v>
+        <v>608</v>
       </c>
       <c r="C169" s="17" t="s">
-        <v>520</v>
+        <v>609</v>
       </c>
       <c r="D169" s="18" t="str">
         <v/>
@@ -20324,22 +21135,25 @@
         <v>195.01333333333301</v>
       </c>
       <c r="AH169" s="20" t="s">
-        <v>521</v>
+        <v>610</v>
       </c>
       <c r="AI169" s="20" t="s">
-        <v>522</v>
+        <v>611</v>
       </c>
       <c r="AJ169" s="20" t="s">
-        <v>523</v>
+        <v>612</v>
+      </c>
+      <c r="AK169" s="20" t="s">
+        <v>613</v>
       </c>
     </row>
     <row r="170" ht="14.250000" customHeight="1">
       <c r="A170" s="1"/>
       <c r="B170" s="16" t="s">
-        <v>524</v>
+        <v>614</v>
       </c>
       <c r="C170" s="17" t="s">
-        <v>525</v>
+        <v>615</v>
       </c>
       <c r="D170" s="18" t="str">
         <v/>
@@ -20439,15 +21253,18 @@
       </c>
       <c r="AJ170" s="22">
         <v>21.531658166666698</v>
+      </c>
+      <c r="AK170" s="22" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="171" ht="14.250000" customHeight="1">
       <c r="A171" s="1"/>
       <c r="B171" s="16" t="s">
-        <v>526</v>
+        <v>617</v>
       </c>
       <c r="C171" s="17" t="s">
-        <v>527</v>
+        <v>618</v>
       </c>
       <c r="D171" s="18" t="str">
         <v/>
@@ -20547,15 +21364,18 @@
       </c>
       <c r="AJ171" s="20">
         <v>8.8530681096681096</v>
+      </c>
+      <c r="AK171" s="20">
+        <v>9.3385809903381602</v>
       </c>
     </row>
     <row r="172" ht="14.250000" customHeight="1">
       <c r="A172" s="1"/>
       <c r="B172" s="16" t="s">
-        <v>528</v>
+        <v>619</v>
       </c>
       <c r="C172" s="17" t="s">
-        <v>529</v>
+        <v>620</v>
       </c>
       <c r="D172" s="18" t="str">
         <v/>
@@ -20655,15 +21475,18 @@
       </c>
       <c r="AJ172" s="22">
         <v>0.92210000000000003</v>
+      </c>
+      <c r="AK172" s="22" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="173" ht="14.250000" customHeight="1">
       <c r="A173" s="1"/>
       <c r="B173" s="16" t="s">
-        <v>530</v>
+        <v>622</v>
       </c>
       <c r="C173" s="17" t="s">
-        <v>531</v>
+        <v>623</v>
       </c>
       <c r="D173" s="18" t="str">
         <v/>
@@ -20726,52 +21549,55 @@
         <v>436.5</v>
       </c>
       <c r="X173" s="20" t="s">
-        <v>532</v>
+        <v>624</v>
       </c>
       <c r="Y173" s="20" t="s">
-        <v>533</v>
+        <v>625</v>
       </c>
       <c r="Z173" s="20" t="s">
-        <v>534</v>
+        <v>626</v>
       </c>
       <c r="AA173" s="20" t="s">
-        <v>535</v>
+        <v>627</v>
       </c>
       <c r="AB173" s="20" t="s">
-        <v>536</v>
+        <v>628</v>
       </c>
       <c r="AC173" s="20" t="s">
-        <v>537</v>
+        <v>629</v>
       </c>
       <c r="AD173" s="20" t="s">
-        <v>538</v>
+        <v>630</v>
       </c>
       <c r="AE173" s="20" t="s">
-        <v>539</v>
+        <v>631</v>
       </c>
       <c r="AF173" s="20" t="s">
-        <v>540</v>
+        <v>632</v>
       </c>
       <c r="AG173" s="20" t="s">
-        <v>541</v>
+        <v>633</v>
       </c>
       <c r="AH173" s="20" t="s">
-        <v>542</v>
+        <v>634</v>
       </c>
       <c r="AI173" s="20" t="s">
-        <v>543</v>
+        <v>635</v>
       </c>
       <c r="AJ173" s="20" t="s">
-        <v>544</v>
+        <v>636</v>
+      </c>
+      <c r="AK173" s="20" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="174" ht="14.250000" customHeight="1">
       <c r="A174" s="1"/>
       <c r="B174" s="16" t="s">
-        <v>545</v>
+        <v>638</v>
       </c>
       <c r="C174" s="17" t="s">
-        <v>546</v>
+        <v>639</v>
       </c>
       <c r="D174" s="18" t="str">
         <v/>
@@ -20871,15 +21697,18 @@
       </c>
       <c r="AJ174" s="22">
         <v>27.841666666666701</v>
+      </c>
+      <c r="AK174" s="22" t="s">
+        <v>640</v>
       </c>
     </row>
     <row r="175" ht="14.250000" customHeight="1">
       <c r="A175" s="1"/>
       <c r="B175" s="16" t="s">
-        <v>547</v>
+        <v>641</v>
       </c>
       <c r="C175" s="17" t="s">
-        <v>548</v>
+        <v>642</v>
       </c>
       <c r="D175" s="18" t="str">
         <v/>
@@ -20979,15 +21808,18 @@
       </c>
       <c r="AJ175" s="20">
         <v>11.289999999999999</v>
+      </c>
+      <c r="AK175" s="20" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="176" ht="14.250000" customHeight="1">
       <c r="A176" s="1"/>
       <c r="B176" s="16" t="s">
-        <v>549</v>
+        <v>644</v>
       </c>
       <c r="C176" s="17" t="s">
-        <v>550</v>
+        <v>645</v>
       </c>
       <c r="D176" s="18" t="str">
         <v/>
@@ -21077,25 +21909,28 @@
         <v>2297.7416990496099</v>
       </c>
       <c r="AG176" s="22" t="s">
-        <v>551</v>
+        <v>646</v>
       </c>
       <c r="AH176" s="22" t="s">
-        <v>552</v>
+        <v>647</v>
       </c>
       <c r="AI176" s="22" t="s">
-        <v>553</v>
+        <v>648</v>
       </c>
       <c r="AJ176" s="22" t="s">
-        <v>554</v>
+        <v>649</v>
+      </c>
+      <c r="AK176" s="22" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="177" ht="14.250000" customHeight="1">
       <c r="A177" s="1"/>
       <c r="B177" s="16" t="s">
-        <v>555</v>
+        <v>651</v>
       </c>
       <c r="C177" s="17" t="s">
-        <v>556</v>
+        <v>652</v>
       </c>
       <c r="D177" s="18" t="str">
         <v/>
@@ -21195,15 +22030,18 @@
       </c>
       <c r="AJ177" s="20">
         <v>33.378267368421099</v>
+      </c>
+      <c r="AK177" s="20" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="178" ht="14.250000" customHeight="1">
       <c r="A178" s="1"/>
       <c r="B178" s="16" t="s">
-        <v>557</v>
+        <v>654</v>
       </c>
       <c r="C178" s="17" t="s">
-        <v>558</v>
+        <v>655</v>
       </c>
       <c r="D178" s="18" t="str">
         <v/>
@@ -21302,16 +22140,19 @@
         <v>1</v>
       </c>
       <c r="AJ178" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK178" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="179" ht="14.250000" customHeight="1">
       <c r="A179" s="1"/>
       <c r="B179" s="16" t="s">
-        <v>559</v>
+        <v>656</v>
       </c>
       <c r="C179" s="17" t="s">
-        <v>560</v>
+        <v>657</v>
       </c>
       <c r="D179" s="18" t="str">
         <v/>
@@ -21411,15 +22252,18 @@
       </c>
       <c r="AJ179" s="20">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK179" s="20">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="180" ht="14.250000" customHeight="1">
       <c r="A180" s="1"/>
       <c r="B180" s="16" t="s">
-        <v>561</v>
+        <v>658</v>
       </c>
       <c r="C180" s="17" t="s">
-        <v>562</v>
+        <v>659</v>
       </c>
       <c r="D180" s="18" t="str">
         <v/>
@@ -21517,17 +22361,20 @@
       <c r="AI180" s="22">
         <v>2.2570858167251702</v>
       </c>
-      <c r="AJ180" s="22" t="s">
-        <v>563</v>
+      <c r="AJ180" s="22">
+        <v>2.2566941038078001</v>
+      </c>
+      <c r="AK180" s="22" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="181" ht="14.250000" customHeight="1">
       <c r="A181" s="1"/>
       <c r="B181" s="16" t="s">
-        <v>564</v>
+        <v>661</v>
       </c>
       <c r="C181" s="17" t="s">
-        <v>565</v>
+        <v>662</v>
       </c>
       <c r="D181" s="18" t="str">
         <v/>
@@ -21627,15 +22474,18 @@
       </c>
       <c r="AJ181" s="20">
         <v>6.7591470272904504</v>
+      </c>
+      <c r="AK181" s="20" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="182" ht="14.250000" customHeight="1">
       <c r="A182" s="1"/>
       <c r="B182" s="16" t="s">
-        <v>566</v>
+        <v>664</v>
       </c>
       <c r="C182" s="17" t="s">
-        <v>567</v>
+        <v>665</v>
       </c>
       <c r="D182" s="18" t="str">
         <v/>
@@ -21735,15 +22585,18 @@
       </c>
       <c r="AJ182" s="22">
         <v>2.8738000000000001</v>
+      </c>
+      <c r="AK182" s="22" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="183" ht="14.250000" customHeight="1">
       <c r="A183" s="1"/>
       <c r="B183" s="16" t="s">
-        <v>568</v>
+        <v>667</v>
       </c>
       <c r="C183" s="17" t="s">
-        <v>569</v>
+        <v>668</v>
       </c>
       <c r="D183" s="18" t="str">
         <v/>
@@ -21842,16 +22695,19 @@
         <v>8.5338233333333307</v>
       </c>
       <c r="AJ183" s="20" t="s">
-        <v>570</v>
+        <v>669</v>
+      </c>
+      <c r="AK183" s="20" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="184" ht="14.250000" customHeight="1">
       <c r="A184" s="1"/>
       <c r="B184" s="16" t="s">
-        <v>571</v>
+        <v>671</v>
       </c>
       <c r="C184" s="17" t="s">
-        <v>572</v>
+        <v>672</v>
       </c>
       <c r="D184" s="18" t="str">
         <v/>
@@ -21951,15 +22807,18 @@
       </c>
       <c r="AJ184" s="22">
         <v>3562.15230517912</v>
+      </c>
+      <c r="AK184" s="22" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="185" ht="14.250000" customHeight="1">
       <c r="A185" s="1"/>
       <c r="B185" s="16" t="s">
-        <v>573</v>
+        <v>674</v>
       </c>
       <c r="C185" s="17" t="s">
-        <v>574</v>
+        <v>675</v>
       </c>
       <c r="D185" s="18" t="str">
         <v/>
@@ -22059,15 +22918,18 @@
       </c>
       <c r="AJ185" s="20">
         <v>26.678121733333299</v>
+      </c>
+      <c r="AK185" s="20" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="186" ht="14.250000" customHeight="1">
       <c r="A186" s="1"/>
       <c r="B186" s="16" t="s">
-        <v>575</v>
+        <v>677</v>
       </c>
       <c r="C186" s="17" t="s">
-        <v>576</v>
+        <v>678</v>
       </c>
       <c r="D186" s="18" t="str">
         <v/>
@@ -22166,16 +23028,19 @@
         <v>3.6724999999999999</v>
       </c>
       <c r="AJ186" s="22">
+        <v>3.6724999999999999</v>
+      </c>
+      <c r="AK186" s="22">
         <v>3.6724999999999999</v>
       </c>
     </row>
     <row r="187" ht="14.250000" customHeight="1">
       <c r="A187" s="1"/>
       <c r="B187" s="16" t="s">
-        <v>577</v>
+        <v>679</v>
       </c>
       <c r="C187" s="17" t="s">
-        <v>578</v>
+        <v>680</v>
       </c>
       <c r="D187" s="18" t="str">
         <v/>
@@ -22275,15 +23140,18 @@
       </c>
       <c r="AJ187" s="20">
         <v>0.74180683005214298</v>
+      </c>
+      <c r="AK187" s="20" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="188" ht="14.250000" customHeight="1">
       <c r="A188" s="1"/>
       <c r="B188" s="16" t="s">
-        <v>579</v>
+        <v>682</v>
       </c>
       <c r="C188" s="17" t="s">
-        <v>580</v>
+        <v>683</v>
       </c>
       <c r="D188" s="18" t="str">
         <v/>
@@ -22382,16 +23250,19 @@
         <v>1</v>
       </c>
       <c r="AJ188" s="22">
+        <v>1</v>
+      </c>
+      <c r="AK188" s="22">
         <v>1</v>
       </c>
     </row>
     <row r="189" ht="14.250000" customHeight="1">
       <c r="A189" s="1"/>
       <c r="B189" s="16" t="s">
-        <v>581</v>
+        <v>684</v>
       </c>
       <c r="C189" s="17" t="s">
-        <v>582</v>
+        <v>685</v>
       </c>
       <c r="D189" s="18" t="str">
         <v/>
@@ -22489,17 +23360,20 @@
       <c r="AI189" s="20">
         <v>43.25</v>
       </c>
-      <c r="AJ189" s="20" t="s">
-        <v>583</v>
+      <c r="AJ189" s="20">
+        <v>43.981333333333303</v>
+      </c>
+      <c r="AK189" s="20" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="190" ht="14.250000" customHeight="1">
       <c r="A190" s="1"/>
       <c r="B190" s="16" t="s">
-        <v>584</v>
+        <v>687</v>
       </c>
       <c r="C190" s="17" t="s">
-        <v>585</v>
+        <v>688</v>
       </c>
       <c r="D190" s="18" t="str">
         <v/>
@@ -22599,15 +23473,18 @@
       </c>
       <c r="AJ190" s="22">
         <v>10741.944817204299</v>
+      </c>
+      <c r="AK190" s="22" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="191" ht="14.250000" customHeight="1">
       <c r="A191" s="1"/>
       <c r="B191" s="16" t="s">
-        <v>586</v>
+        <v>690</v>
       </c>
       <c r="C191" s="17" t="s">
-        <v>587</v>
+        <v>691</v>
       </c>
       <c r="D191" s="18" t="str">
         <v/>
@@ -22706,16 +23583,19 @@
         <v>110.73333333333299</v>
       </c>
       <c r="AJ191" s="20" t="s">
-        <v>588</v>
+        <v>692</v>
+      </c>
+      <c r="AK191" s="20" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="192" ht="14.250000" customHeight="1">
       <c r="A192" s="1"/>
       <c r="B192" s="16" t="s">
-        <v>589</v>
+        <v>694</v>
       </c>
       <c r="C192" s="17" t="s">
-        <v>590</v>
+        <v>695</v>
       </c>
       <c r="D192" s="18" t="str">
         <v/>
@@ -22775,55 +23655,58 @@
         <v>71359.309366666697</v>
       </c>
       <c r="W192" s="22" t="s">
-        <v>591</v>
+        <v>696</v>
       </c>
       <c r="X192" s="22" t="s">
-        <v>592</v>
+        <v>697</v>
       </c>
       <c r="Y192" s="22" t="s">
-        <v>593</v>
+        <v>698</v>
       </c>
       <c r="Z192" s="22" t="s">
-        <v>594</v>
+        <v>699</v>
       </c>
       <c r="AA192" s="22" t="s">
-        <v>595</v>
+        <v>700</v>
       </c>
       <c r="AB192" s="22" t="s">
-        <v>596</v>
+        <v>701</v>
       </c>
       <c r="AC192" s="22" t="s">
-        <v>597</v>
+        <v>702</v>
       </c>
       <c r="AD192" s="22" t="s">
-        <v>598</v>
+        <v>703</v>
       </c>
       <c r="AE192" s="22" t="s">
-        <v>599</v>
+        <v>704</v>
       </c>
       <c r="AF192" s="22" t="s">
-        <v>600</v>
+        <v>705</v>
       </c>
       <c r="AG192" s="22" t="s">
-        <v>601</v>
+        <v>706</v>
       </c>
       <c r="AH192" s="22" t="s">
-        <v>602</v>
+        <v>707</v>
       </c>
       <c r="AI192" s="22" t="s">
-        <v>603</v>
+        <v>708</v>
       </c>
       <c r="AJ192" s="22" t="s">
-        <v>604</v>
+        <v>709</v>
+      </c>
+      <c r="AK192" s="22" t="s">
+        <v>710</v>
       </c>
     </row>
     <row r="193" ht="14.250000" customHeight="1">
       <c r="A193" s="1"/>
       <c r="B193" s="16" t="s">
-        <v>605</v>
+        <v>711</v>
       </c>
       <c r="C193" s="17" t="s">
-        <v>606</v>
+        <v>712</v>
       </c>
       <c r="D193" s="18" t="str">
         <v/>
@@ -22921,17 +23804,20 @@
       <c r="AI193" s="20">
         <v>23160.950000000001</v>
       </c>
-      <c r="AJ193" s="20" t="s">
-        <v>607</v>
+      <c r="AJ193" s="20">
+        <v>23153.209999999999</v>
+      </c>
+      <c r="AK193" s="20" t="s">
+        <v>713</v>
       </c>
     </row>
     <row r="194" ht="14.250000" customHeight="1">
       <c r="A194" s="1"/>
       <c r="B194" s="16" t="s">
-        <v>608</v>
+        <v>714</v>
       </c>
       <c r="C194" s="17" t="s">
-        <v>609</v>
+        <v>715</v>
       </c>
       <c r="D194" s="18" t="str">
         <v/>
@@ -22949,16 +23835,16 @@
         <v>214.88999999999999</v>
       </c>
       <c r="I194" s="22">
-        <v>219.90833333333299</v>
+        <v>215</v>
       </c>
       <c r="J194" s="22">
-        <v>227.43583333333299</v>
+        <v>225</v>
       </c>
       <c r="K194" s="22">
-        <v>234.963333333333</v>
+        <v>238.333333333333</v>
       </c>
       <c r="L194" s="22">
-        <v>242.490833333333</v>
+        <v>245</v>
       </c>
       <c r="M194" s="22">
         <v>258.66666666666703</v>
@@ -23000,46 +23886,49 @@
         <v>214.88999999999999</v>
       </c>
       <c r="Z194" s="22">
-        <v>552.66666666666697</v>
+        <v>541.56630824372803</v>
       </c>
       <c r="AA194" s="22">
-        <v>604.66666666666697</v>
+        <v>597.21111111111099</v>
       </c>
       <c r="AB194" s="22">
-        <v>591.66666666666697</v>
+        <v>593.25627240143399</v>
       </c>
       <c r="AC194" s="22">
-        <v>659</v>
+        <v>654.99295513533502</v>
       </c>
       <c r="AD194" s="22">
-        <v>715</v>
+        <v>702.57777777777801</v>
       </c>
       <c r="AE194" s="22">
-        <v>792.33333333333303</v>
+        <v>785.79756895745697</v>
       </c>
       <c r="AF194" s="22">
-        <v>795.66666666666697</v>
+        <v>828.65555555555602</v>
       </c>
       <c r="AG194" s="22">
-        <v>853</v>
+        <v>844.82404391122395</v>
       </c>
       <c r="AH194" s="22">
-        <v>917.33333333333303</v>
+        <v>903.35111111111098</v>
       </c>
       <c r="AI194" s="22">
-        <v>1060.3333333333301</v>
-      </c>
-      <c r="AJ194" s="22" t="s">
-        <v>610</v>
+        <v>1032.1486938349001</v>
+      </c>
+      <c r="AJ194" s="22">
+        <v>1361.54489337823</v>
+      </c>
+      <c r="AK194" s="22" t="s">
+        <v>716</v>
       </c>
     </row>
     <row r="195" ht="14.250000" customHeight="1">
       <c r="A195" s="1"/>
       <c r="B195" s="16" t="s">
-        <v>611</v>
+        <v>717</v>
       </c>
       <c r="C195" s="17" t="s">
-        <v>612</v>
+        <v>718</v>
       </c>
       <c r="D195" s="18" t="str">
         <v/>
@@ -23137,83 +24026,86 @@
       <c r="AI195" s="20">
         <v>19.0316428345959</v>
       </c>
-      <c r="AJ195" s="20" t="s">
-        <v>613</v>
+      <c r="AJ195" s="20">
+        <v>17.046973096753401</v>
+      </c>
+      <c r="AK195" s="20" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="196" ht="14.250000" customHeight="1">
       <c r="A196" s="1"/>
       <c r="B196" s="16" t="s">
-        <v>614</v>
+        <v>720</v>
       </c>
       <c r="C196" s="17" t="s">
-        <v>615</v>
+        <v>721</v>
       </c>
       <c r="D196" s="18" t="str">
         <v/>
       </c>
       <c r="E196" s="21" t="s">
-        <v>616</v>
+        <v>722</v>
       </c>
       <c r="F196" s="22" t="s">
-        <v>617</v>
+        <v>723</v>
       </c>
       <c r="G196" s="22" t="s">
-        <v>618</v>
+        <v>724</v>
       </c>
       <c r="H196" s="22" t="s">
-        <v>619</v>
+        <v>725</v>
       </c>
       <c r="I196" s="22" t="s">
-        <v>620</v>
+        <v>726</v>
       </c>
       <c r="J196" s="22" t="s">
-        <v>621</v>
+        <v>727</v>
       </c>
       <c r="K196" s="22" t="s">
-        <v>622</v>
+        <v>728</v>
       </c>
       <c r="L196" s="22" t="s">
-        <v>623</v>
+        <v>729</v>
       </c>
       <c r="M196" s="22" t="s">
-        <v>624</v>
+        <v>730</v>
       </c>
       <c r="N196" s="22" t="s">
-        <v>625</v>
+        <v>731</v>
       </c>
       <c r="O196" s="22" t="s">
-        <v>626</v>
+        <v>732</v>
       </c>
       <c r="P196" s="22" t="s">
-        <v>627</v>
+        <v>733</v>
       </c>
       <c r="Q196" s="22" t="s">
-        <v>628</v>
+        <v>734</v>
       </c>
       <c r="R196" s="22" t="s">
-        <v>629</v>
+        <v>735</v>
       </c>
       <c r="S196" s="22" t="s">
-        <v>630</v>
+        <v>736</v>
       </c>
       <c r="T196" s="22" t="s">
-        <v>631</v>
+        <v>737</v>
       </c>
       <c r="U196" s="22" t="s">
-        <v>632</v>
+        <v>738</v>
       </c>
       <c r="V196" s="22" t="s">
-        <v>633</v>
+        <v>739</v>
       </c>
       <c r="W196" s="22" t="s">
-        <v>634</v>
+        <v>740</v>
       </c>
       <c r="X196" s="22" t="s">
-        <v>635</v>
+        <v>741</v>
       </c>
       <c r="Y196" s="22" t="s">
-        <v>636</v>
+        <v>742</v>
       </c>
       <c r="Z196" s="22">
         <v>4.4076787878787904</v>
@@ -23245,17 +24137,20 @@
       <c r="AI196" s="22">
         <v>85.934885909090895</v>
       </c>
-      <c r="AJ196" s="22" t="s">
-        <v>637</v>
+      <c r="AJ196" s="22">
+        <v>100.375530952381</v>
+      </c>
+      <c r="AK196" s="22" t="s">
+        <v>743</v>
       </c>
     </row>
     <row r="197" ht="24.000000" customHeight="1">
       <c r="A197" s="1"/>
       <c r="B197" s="16" t="s">
-        <v>638</v>
+        <v>744</v>
       </c>
       <c r="C197" s="17" t="s">
-        <v>639</v>
+        <v>745</v>
       </c>
       <c r="D197" s="18" t="str">
         <v/>
@@ -23355,15 +24250,18 @@
       </c>
       <c r="AJ197" s="20">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK197" s="20">
+        <v>584.46576493058706</v>
       </c>
     </row>
     <row r="198" ht="24.000000" customHeight="1">
       <c r="A198" s="1"/>
       <c r="B198" s="16" t="s">
-        <v>640</v>
+        <v>746</v>
       </c>
       <c r="C198" s="17" t="s">
-        <v>641</v>
+        <v>747</v>
       </c>
       <c r="D198" s="18" t="str">
         <v/>
@@ -23462,16 +24360,19 @@
         <v>2.7000000000000002</v>
       </c>
       <c r="AJ198" s="22">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="AK198" s="22">
         <v>2.7000000000000002</v>
       </c>
     </row>
     <row r="199" ht="24.000000" customHeight="1">
       <c r="A199" s="1"/>
       <c r="B199" s="23" t="s">
-        <v>642</v>
+        <v>748</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>643</v>
+        <v>749</v>
       </c>
       <c r="D199" s="25" t="str">
         <v/>
@@ -23571,6 +24472,9 @@
       </c>
       <c r="AJ199" s="20">
         <v>573.46657040873004</v>
+      </c>
+      <c r="AK199" s="20">
+        <v>584.46576493058706</v>
       </c>
     </row>
   </sheetData>
